--- a/contoha1kl.xlsx
+++ b/contoha1kl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kukuh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\myarticle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48159FB8-840D-4FBC-A27D-DC9F345994DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B4DBBB-A9E4-42DB-A54D-5500F58059C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$11:$I$152</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$12:$I$153</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$A$1:$J$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$9:$I$149</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$A$1:$I$152</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$11</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Sheet1 (2)'!$1:$12</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Sheet1 (2)'!$1:$11</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="204">
   <si>
     <t>KODE</t>
   </si>
@@ -377,38 +377,288 @@
     <t>1 Aset yang disajikan hanya yang memiliki penyusutan</t>
   </si>
   <si>
-    <t>Tahun 2020</t>
-  </si>
-  <si>
     <t>Per 31 Desember 2020</t>
   </si>
   <si>
-    <t>BADAN URUSAN ADMINISTRASI</t>
-  </si>
-  <si>
-    <t>UNTUK PERIODE YANG BERAKHIR PADA 31 DESEMBER 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERALATAN DAN MESIN DALAM RENOVASI_x000D_
+    <t>132111</t>
+  </si>
+  <si>
+    <t>30101</t>
+  </si>
+  <si>
+    <t>30103</t>
+  </si>
+  <si>
+    <t>30201</t>
+  </si>
+  <si>
+    <t>30202</t>
+  </si>
+  <si>
+    <t>30203</t>
+  </si>
+  <si>
+    <t>30204</t>
+  </si>
+  <si>
+    <t>30205</t>
+  </si>
+  <si>
+    <t>30301</t>
+  </si>
+  <si>
+    <t>30302</t>
+  </si>
+  <si>
+    <t>30303</t>
+  </si>
+  <si>
+    <t>30401</t>
+  </si>
+  <si>
+    <t>30501</t>
+  </si>
+  <si>
+    <t>30502</t>
+  </si>
+  <si>
+    <t>30601</t>
+  </si>
+  <si>
+    <t>30602</t>
+  </si>
+  <si>
+    <t>30603</t>
+  </si>
+  <si>
+    <t>30604</t>
+  </si>
+  <si>
+    <t>30701</t>
+  </si>
+  <si>
+    <t>30702</t>
+  </si>
+  <si>
+    <t>30801</t>
+  </si>
+  <si>
+    <t>30802</t>
+  </si>
+  <si>
+    <t>30803</t>
+  </si>
+  <si>
+    <t>30804</t>
+  </si>
+  <si>
+    <t>30805</t>
+  </si>
+  <si>
+    <t>30806</t>
+  </si>
+  <si>
+    <t>30807</t>
+  </si>
+  <si>
+    <t>30808</t>
+  </si>
+  <si>
+    <t>30901</t>
+  </si>
+  <si>
+    <t>30902</t>
+  </si>
+  <si>
+    <t>30904</t>
+  </si>
+  <si>
+    <t>31001</t>
+  </si>
+  <si>
+    <t>31002</t>
+  </si>
+  <si>
+    <t>31101</t>
+  </si>
+  <si>
+    <t>31102</t>
+  </si>
+  <si>
+    <t>31202</t>
+  </si>
+  <si>
+    <t>31301</t>
+  </si>
+  <si>
+    <t>31303</t>
+  </si>
+  <si>
+    <t>31401</t>
+  </si>
+  <si>
+    <t>31501</t>
+  </si>
+  <si>
+    <t>31502</t>
+  </si>
+  <si>
+    <t>31503</t>
+  </si>
+  <si>
+    <t>31504</t>
+  </si>
+  <si>
+    <t>31601</t>
+  </si>
+  <si>
+    <t>31701</t>
+  </si>
+  <si>
+    <t>31801</t>
+  </si>
+  <si>
+    <t>31901</t>
+  </si>
+  <si>
+    <t>133111</t>
+  </si>
+  <si>
+    <t>40101</t>
+  </si>
+  <si>
+    <t>40102</t>
+  </si>
+  <si>
+    <t>40201</t>
+  </si>
+  <si>
+    <t>40301</t>
+  </si>
+  <si>
+    <t>40401</t>
+  </si>
+  <si>
+    <t>134111</t>
+  </si>
+  <si>
+    <t>50101</t>
+  </si>
+  <si>
+    <t>50102</t>
+  </si>
+  <si>
+    <t>134112</t>
+  </si>
+  <si>
+    <t>50201</t>
+  </si>
+  <si>
+    <t>50202</t>
+  </si>
+  <si>
+    <t>50203</t>
+  </si>
+  <si>
+    <t>50204</t>
+  </si>
+  <si>
+    <t>50205</t>
+  </si>
+  <si>
+    <t>50206</t>
+  </si>
+  <si>
+    <t>50207</t>
+  </si>
+  <si>
+    <t>134113</t>
+  </si>
+  <si>
+    <t>50301</t>
+  </si>
+  <si>
+    <t>50302</t>
+  </si>
+  <si>
+    <t>50303</t>
+  </si>
+  <si>
+    <t>50305</t>
+  </si>
+  <si>
+    <t>50306</t>
+  </si>
+  <si>
+    <t>50307</t>
+  </si>
+  <si>
+    <t>50309</t>
+  </si>
+  <si>
+    <t>50310</t>
+  </si>
+  <si>
+    <t>50401</t>
+  </si>
+  <si>
+    <t>50402</t>
+  </si>
+  <si>
+    <t>50403</t>
+  </si>
+  <si>
+    <t>50404</t>
+  </si>
+  <si>
+    <t>135111</t>
+  </si>
+  <si>
+    <t>60702</t>
+  </si>
+  <si>
+    <t>60703</t>
+  </si>
+  <si>
+    <t>60704</t>
+  </si>
+  <si>
+    <t>135121</t>
+  </si>
+  <si>
+    <t>60201</t>
+  </si>
+  <si>
+    <t>166112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERALATAN DAN MESIN DALAM RENOVASI
 </t>
   </si>
   <si>
-    <t xml:space="preserve">GEDUNG DAN BANGUNAN DALAM RENOVASI_x000D_
+    <t xml:space="preserve">GEDUNG DAN BANGUNAN DALAM RENOVASI
 </t>
   </si>
   <si>
-    <t xml:space="preserve">JALAN, IRIGASI, DAN JARINGAN DALAM RENOVASI_x000D_
+    <t xml:space="preserve">JALAN, IRIGASI, DAN JARINGAN DALAM RENOVASI
 </t>
+  </si>
+  <si>
+    <t>UNTUK PERIODE YANG BERAKHIR PADA 31 DESEMBER 2021</t>
+  </si>
+  <si>
+    <t>Tahun 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.###;\(#,##0.###\)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,15 +722,28 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -505,12 +768,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -533,11 +796,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -585,6 +885,21 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,56 +915,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="170" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -763,7 +1086,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -995,78 +1318,78 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="23"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
@@ -1079,16 +1402,16 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -1103,15 +1426,15 @@
       <c r="H9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="13" t="s">
         <v>98</v>
       </c>
@@ -1124,7 +1447,7 @@
       <c r="H10" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
@@ -5130,10 +5453,10 @@
     </row>
     <row r="149" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17"/>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C149" s="26"/>
+      <c r="C149" s="24"/>
       <c r="D149" s="19">
         <v>11412741800893</v>
       </c>
@@ -5169,11 +5492,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B4:I4"/>
@@ -5181,6 +5499,11 @@
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5195,21 +5518,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
@@ -5218,4629 +5543,4608 @@
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="B4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="B5" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="B6" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+    <row r="7" spans="1:12" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
+        <v>0</v>
+      </c>
+      <c r="B11" s="34">
         <v>1</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="C11" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="D11" s="44">
         <v>4</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="28" t="s">
+      <c r="E11" s="34">
+        <v>5</v>
+      </c>
+      <c r="F11" s="34">
+        <v>6</v>
+      </c>
+      <c r="G11" s="34">
+        <v>7</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="46">
+        <v>3808575917419</v>
+      </c>
+      <c r="E12" s="46">
+        <v>2796013714015</v>
+      </c>
+      <c r="F12" s="46">
+        <v>299973803507</v>
+      </c>
+      <c r="G12" s="46">
+        <v>-69615246687</v>
+      </c>
+      <c r="H12" s="46">
+        <v>3026372270835</v>
+      </c>
+      <c r="I12" s="46">
+        <v>782203646584</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="39">
+        <v>1</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="47">
+        <v>23000000</v>
+      </c>
+      <c r="E13" s="47">
+        <v>97500000</v>
+      </c>
+      <c r="F13" s="47">
+        <v>0</v>
+      </c>
+      <c r="G13" s="47">
+        <v>-74500000</v>
+      </c>
+      <c r="H13" s="47">
+        <v>23000000</v>
+      </c>
+      <c r="I13" s="47">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39">
+        <v>2</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="47">
+        <v>118335387902</v>
+      </c>
+      <c r="E14" s="47">
+        <v>89409962670</v>
+      </c>
+      <c r="F14" s="47">
+        <v>9204800530</v>
+      </c>
+      <c r="G14" s="47">
+        <v>-1295593010</v>
+      </c>
+      <c r="H14" s="47">
+        <v>97319170190</v>
+      </c>
+      <c r="I14" s="47">
+        <v>21016217712</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="B15" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="47">
+        <v>565506371483</v>
+      </c>
+      <c r="E15" s="47">
+        <v>499611747033</v>
+      </c>
+      <c r="F15" s="47">
+        <v>14625393493</v>
+      </c>
+      <c r="G15" s="47">
+        <v>-3044254170</v>
+      </c>
+      <c r="H15" s="47">
+        <v>511192886356</v>
+      </c>
+      <c r="I15" s="47">
+        <v>54313485127</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39">
+        <v>4</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="47">
+        <v>1392726098</v>
+      </c>
+      <c r="E16" s="47">
+        <v>1276451251</v>
+      </c>
+      <c r="F16" s="47">
+        <v>48672400</v>
+      </c>
+      <c r="G16" s="47">
+        <v>88000</v>
+      </c>
+      <c r="H16" s="47">
+        <v>1325211651</v>
+      </c>
+      <c r="I16" s="47">
+        <v>67514447</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39">
+        <v>5</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
+      <c r="G17" s="47">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39">
+        <v>6</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="47">
+        <v>0</v>
+      </c>
+      <c r="E18" s="47">
+        <v>0</v>
+      </c>
+      <c r="F18" s="47">
+        <v>0</v>
+      </c>
+      <c r="G18" s="47">
+        <v>0</v>
+      </c>
+      <c r="H18" s="47">
+        <v>0</v>
+      </c>
+      <c r="I18" s="47">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39">
+        <v>7</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="47">
+        <v>0</v>
+      </c>
+      <c r="E19" s="47">
+        <v>0</v>
+      </c>
+      <c r="F19" s="47">
+        <v>0</v>
+      </c>
+      <c r="G19" s="47">
+        <v>0</v>
+      </c>
+      <c r="H19" s="47">
+        <v>0</v>
+      </c>
+      <c r="I19" s="47">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39">
+        <v>8</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="47">
+        <v>10284570111</v>
+      </c>
+      <c r="E20" s="47">
+        <v>9118680418</v>
+      </c>
+      <c r="F20" s="47">
+        <v>689441054</v>
+      </c>
+      <c r="G20" s="47">
+        <v>-4315000</v>
+      </c>
+      <c r="H20" s="47">
+        <v>9803806472</v>
+      </c>
+      <c r="I20" s="47">
+        <v>480763639</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39">
+        <v>9</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="47">
+        <v>812592433</v>
+      </c>
+      <c r="E21" s="47">
+        <v>745479302</v>
+      </c>
+      <c r="F21" s="47">
+        <v>66134032</v>
+      </c>
+      <c r="G21" s="47">
+        <v>-56562964</v>
+      </c>
+      <c r="H21" s="47">
+        <v>755050370</v>
+      </c>
+      <c r="I21" s="47">
+        <v>57542063</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39">
+        <v>10</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="47">
+        <v>2872436422</v>
+      </c>
+      <c r="E22" s="47">
+        <v>2091651188</v>
+      </c>
+      <c r="F22" s="47">
+        <v>228735611</v>
+      </c>
+      <c r="G22" s="47">
+        <v>24525725</v>
+      </c>
+      <c r="H22" s="47">
+        <v>2344912524</v>
+      </c>
+      <c r="I22" s="47">
+        <v>527523898</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39">
+        <v>11</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="47">
+        <v>4072295366</v>
+      </c>
+      <c r="E23" s="47">
+        <v>3789329878</v>
+      </c>
+      <c r="F23" s="47">
+        <v>255031215</v>
+      </c>
+      <c r="G23" s="47">
+        <v>-214873875</v>
+      </c>
+      <c r="H23" s="47">
+        <v>3829487218</v>
+      </c>
+      <c r="I23" s="47">
+        <v>242808148</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <v>12</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="47">
+        <v>476223479551</v>
+      </c>
+      <c r="E24" s="47">
+        <v>404424335055</v>
+      </c>
+      <c r="F24" s="47">
+        <v>28181758568</v>
+      </c>
+      <c r="G24" s="47">
+        <v>-7302313094</v>
+      </c>
+      <c r="H24" s="47">
+        <v>425303780529</v>
+      </c>
+      <c r="I24" s="47">
+        <v>50919699022</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <v>13</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="47">
+        <v>1031064383807</v>
+      </c>
+      <c r="E25" s="47">
+        <v>840128184517</v>
+      </c>
+      <c r="F25" s="47">
+        <v>70917793779</v>
+      </c>
+      <c r="G25" s="47">
+        <v>-16701454862</v>
+      </c>
+      <c r="H25" s="47">
+        <v>894344523434</v>
+      </c>
+      <c r="I25" s="47">
+        <v>136719860373</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="39">
+        <v>14</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="47">
+        <v>135337358138</v>
+      </c>
+      <c r="E26" s="47">
+        <v>90946147533</v>
+      </c>
+      <c r="F26" s="47">
+        <v>14323027750</v>
+      </c>
+      <c r="G26" s="47">
+        <v>-10200855543</v>
+      </c>
+      <c r="H26" s="47">
+        <v>95068319740</v>
+      </c>
+      <c r="I26" s="47">
+        <v>40269038398</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="39">
+        <v>15</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="47">
+        <v>44212843866</v>
+      </c>
+      <c r="E27" s="47">
+        <v>39919373598</v>
+      </c>
+      <c r="F27" s="47">
+        <v>1388656160</v>
+      </c>
+      <c r="G27" s="47">
+        <v>-732220646</v>
+      </c>
+      <c r="H27" s="47">
+        <v>40575809112</v>
+      </c>
+      <c r="I27" s="47">
+        <v>3637034754</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="39">
+        <v>16</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="47">
+        <v>75696102961</v>
+      </c>
+      <c r="E28" s="47">
+        <v>32065954091</v>
+      </c>
+      <c r="F28" s="47">
+        <v>6567888922</v>
+      </c>
+      <c r="G28" s="47">
+        <v>-1521101799</v>
+      </c>
+      <c r="H28" s="47">
+        <v>37112741214</v>
+      </c>
+      <c r="I28" s="47">
+        <v>38583361747</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="39">
+        <v>17</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="47">
+        <v>122875000</v>
+      </c>
+      <c r="E29" s="47">
+        <v>97765792</v>
+      </c>
+      <c r="F29" s="47">
+        <v>8163893</v>
+      </c>
+      <c r="G29" s="47">
+        <v>-2845866</v>
+      </c>
+      <c r="H29" s="47">
+        <v>103083819</v>
+      </c>
+      <c r="I29" s="47">
+        <v>19791181</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="39">
+        <v>18</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="47">
+        <v>9065533564</v>
+      </c>
+      <c r="E30" s="47">
+        <v>7878001961</v>
+      </c>
+      <c r="F30" s="47">
+        <v>418208794</v>
+      </c>
+      <c r="G30" s="47">
+        <v>-630089137</v>
+      </c>
+      <c r="H30" s="47">
+        <v>7666121618</v>
+      </c>
+      <c r="I30" s="47">
+        <v>1399411946</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39">
+        <v>19</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="47">
+        <v>1151660520</v>
+      </c>
+      <c r="E31" s="47">
+        <v>441870200</v>
+      </c>
+      <c r="F31" s="47">
+        <v>156424822</v>
+      </c>
+      <c r="G31" s="47">
+        <v>-10881700</v>
+      </c>
+      <c r="H31" s="47">
+        <v>587413322</v>
+      </c>
+      <c r="I31" s="47">
+        <v>564247198</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39">
+        <v>20</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="47">
+        <v>10209642335</v>
+      </c>
+      <c r="E32" s="47">
+        <v>4851649006</v>
+      </c>
+      <c r="F32" s="47">
+        <v>828122615</v>
+      </c>
+      <c r="G32" s="47">
+        <v>-80165633</v>
+      </c>
+      <c r="H32" s="47">
+        <v>5599605988</v>
+      </c>
+      <c r="I32" s="47">
+        <v>4610036347</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="39">
+        <v>21</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="47">
+        <v>164686616</v>
+      </c>
+      <c r="E33" s="47">
+        <v>67943266</v>
+      </c>
+      <c r="F33" s="47">
+        <v>10979106</v>
+      </c>
+      <c r="G33" s="47">
+        <v>0</v>
+      </c>
+      <c r="H33" s="47">
+        <v>78922372</v>
+      </c>
+      <c r="I33" s="47">
+        <v>85764244</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="39">
+        <v>22</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="47">
+        <v>1387454872</v>
+      </c>
+      <c r="E34" s="47">
+        <v>404171189</v>
+      </c>
+      <c r="F34" s="47">
+        <v>90951820</v>
+      </c>
+      <c r="G34" s="47">
+        <v>-13260563</v>
+      </c>
+      <c r="H34" s="47">
+        <v>481862446</v>
+      </c>
+      <c r="I34" s="47">
+        <v>905592426</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="39">
+        <v>23</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="47">
+        <v>565130300</v>
+      </c>
+      <c r="E35" s="47">
+        <v>56605720</v>
+      </c>
+      <c r="F35" s="47">
+        <v>56513030</v>
+      </c>
+      <c r="G35" s="47">
+        <v>0</v>
+      </c>
+      <c r="H35" s="47">
+        <v>113118750</v>
+      </c>
+      <c r="I35" s="47">
+        <v>452011550</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="39">
+        <v>24</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="47">
+        <v>0</v>
+      </c>
+      <c r="E36" s="47">
+        <v>0</v>
+      </c>
+      <c r="F36" s="47">
+        <v>0</v>
+      </c>
+      <c r="G36" s="47">
+        <v>0</v>
+      </c>
+      <c r="H36" s="47">
+        <v>0</v>
+      </c>
+      <c r="I36" s="47">
+        <v>0</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="39">
+        <v>25</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="47">
+        <v>44618878</v>
+      </c>
+      <c r="E37" s="47">
+        <v>40842618</v>
+      </c>
+      <c r="F37" s="47">
+        <v>1510504</v>
+      </c>
+      <c r="G37" s="47">
+        <v>0</v>
+      </c>
+      <c r="H37" s="47">
+        <v>42353122</v>
+      </c>
+      <c r="I37" s="47">
+        <v>2265756</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+    </row>
+    <row r="38" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="39">
+        <v>26</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="47">
+        <v>1465493240</v>
+      </c>
+      <c r="E38" s="47">
+        <v>434638698</v>
+      </c>
+      <c r="F38" s="47">
+        <v>96990053</v>
+      </c>
+      <c r="G38" s="47">
+        <v>0</v>
+      </c>
+      <c r="H38" s="47">
+        <v>531628751</v>
+      </c>
+      <c r="I38" s="47">
+        <v>933864489</v>
+      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+    </row>
+    <row r="39" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="39">
+        <v>27</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="47">
+        <v>62919000</v>
+      </c>
+      <c r="E39" s="47">
+        <v>40069150</v>
+      </c>
+      <c r="F39" s="47">
+        <v>3442700</v>
+      </c>
+      <c r="G39" s="47">
+        <v>0</v>
+      </c>
+      <c r="H39" s="47">
+        <v>43511850</v>
+      </c>
+      <c r="I39" s="47">
+        <v>19407150</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+    </row>
+    <row r="40" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="39">
+        <v>28</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0</v>
+      </c>
+      <c r="E40" s="47">
+        <v>0</v>
+      </c>
+      <c r="F40" s="47">
+        <v>0</v>
+      </c>
+      <c r="G40" s="47">
+        <v>0</v>
+      </c>
+      <c r="H40" s="47">
+        <v>0</v>
+      </c>
+      <c r="I40" s="47">
+        <v>0</v>
+      </c>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+    </row>
+    <row r="41" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39">
+        <v>29</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="47">
+        <v>6831645579</v>
+      </c>
+      <c r="E41" s="47">
+        <v>5355931223</v>
+      </c>
+      <c r="F41" s="47">
+        <v>1152800756</v>
+      </c>
+      <c r="G41" s="47">
+        <v>-26000</v>
+      </c>
+      <c r="H41" s="47">
+        <v>6508705979</v>
+      </c>
+      <c r="I41" s="47">
+        <v>322939600</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+    </row>
+    <row r="42" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="39">
+        <v>30</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="47">
+        <v>1851039953</v>
+      </c>
+      <c r="E42" s="47">
+        <v>741409242</v>
+      </c>
+      <c r="F42" s="47">
+        <v>298591883</v>
+      </c>
+      <c r="G42" s="47">
+        <v>7690625</v>
+      </c>
+      <c r="H42" s="47">
+        <v>1047691750</v>
+      </c>
+      <c r="I42" s="47">
+        <v>803348203</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+    </row>
+    <row r="43" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39">
+        <v>31</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="47">
+        <v>673325597039</v>
+      </c>
+      <c r="E43" s="47">
+        <v>495477682973</v>
+      </c>
+      <c r="F43" s="47">
+        <v>69487268701</v>
+      </c>
+      <c r="G43" s="47">
+        <v>-23106761876</v>
+      </c>
+      <c r="H43" s="47">
+        <v>541858189798</v>
+      </c>
+      <c r="I43" s="47">
+        <v>131467407241</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+    </row>
+    <row r="44" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="39">
+        <v>32</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="47">
+        <v>611684995557</v>
+      </c>
+      <c r="E44" s="47">
+        <v>258883355529</v>
+      </c>
+      <c r="F44" s="47">
+        <v>77811608593</v>
+      </c>
+      <c r="G44" s="47">
+        <v>-4138544415</v>
+      </c>
+      <c r="H44" s="47">
+        <v>332556419707</v>
+      </c>
+      <c r="I44" s="47">
+        <v>279128575850</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+    </row>
+    <row r="45" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="39">
+        <v>33</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="47">
+        <v>4576920</v>
+      </c>
+      <c r="E45" s="47">
+        <v>4576920</v>
+      </c>
+      <c r="F45" s="47">
+        <v>0</v>
+      </c>
+      <c r="G45" s="47">
+        <v>0</v>
+      </c>
+      <c r="H45" s="47">
+        <v>4576920</v>
+      </c>
+      <c r="I45" s="47">
+        <v>0</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+    </row>
+    <row r="46" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="39">
+        <v>34</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="47">
+        <v>298380109</v>
+      </c>
+      <c r="E46" s="47">
+        <v>67195200</v>
+      </c>
+      <c r="F46" s="47">
+        <v>11963495</v>
+      </c>
+      <c r="G46" s="47">
+        <v>0</v>
+      </c>
+      <c r="H46" s="47">
+        <v>79158695</v>
+      </c>
+      <c r="I46" s="47">
+        <v>219221414</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+    </row>
+    <row r="47" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="39">
+        <v>35</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="47">
+        <v>5050000</v>
+      </c>
+      <c r="E47" s="47">
+        <v>5050000</v>
+      </c>
+      <c r="F47" s="47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="47">
+        <v>5050000</v>
+      </c>
+      <c r="I47" s="47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+    </row>
+    <row r="48" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="39">
+        <v>36</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="47">
+        <v>384987059</v>
+      </c>
+      <c r="E48" s="47">
+        <v>217001949</v>
+      </c>
+      <c r="F48" s="47">
+        <v>35030936</v>
+      </c>
+      <c r="G48" s="47">
+        <v>0</v>
+      </c>
+      <c r="H48" s="47">
+        <v>252032885</v>
+      </c>
+      <c r="I48" s="47">
+        <v>132954174</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+    </row>
+    <row r="49" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="39">
+        <v>37</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="47">
+        <v>6459000</v>
+      </c>
+      <c r="E49" s="47">
+        <v>4268880</v>
+      </c>
+      <c r="F49" s="47">
+        <v>398208</v>
+      </c>
+      <c r="G49" s="47">
+        <v>0</v>
+      </c>
+      <c r="H49" s="47">
+        <v>4667088</v>
+      </c>
+      <c r="I49" s="47">
+        <v>1791912</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="39">
+        <v>38</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="47">
+        <v>17655000</v>
+      </c>
+      <c r="E50" s="47">
+        <v>17655000</v>
+      </c>
+      <c r="F50" s="47">
+        <v>0</v>
+      </c>
+      <c r="G50" s="47">
+        <v>0</v>
+      </c>
+      <c r="H50" s="47">
+        <v>17655000</v>
+      </c>
+      <c r="I50" s="47">
+        <v>0</v>
+      </c>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="39">
+        <v>39</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="47">
+        <v>1500000</v>
+      </c>
+      <c r="E51" s="47">
+        <v>1500000</v>
+      </c>
+      <c r="F51" s="47">
+        <v>0</v>
+      </c>
+      <c r="G51" s="47">
+        <v>0</v>
+      </c>
+      <c r="H51" s="47">
+        <v>1500000</v>
+      </c>
+      <c r="I51" s="47">
+        <v>0</v>
+      </c>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+    </row>
+    <row r="52" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="39">
+        <v>40</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="47">
+        <v>3290450</v>
+      </c>
+      <c r="E52" s="47">
+        <v>2910766</v>
+      </c>
+      <c r="F52" s="47">
+        <v>179684</v>
+      </c>
+      <c r="G52" s="47">
+        <v>200000</v>
+      </c>
+      <c r="H52" s="47">
+        <v>3290450</v>
+      </c>
+      <c r="I52" s="47">
+        <v>0</v>
+      </c>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+    </row>
+    <row r="53" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="39">
+        <v>41</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="47">
+        <v>1523614700</v>
+      </c>
+      <c r="E53" s="47">
+        <v>840739700</v>
+      </c>
+      <c r="F53" s="47">
+        <v>710875000</v>
+      </c>
+      <c r="G53" s="47">
+        <v>-28000000</v>
+      </c>
+      <c r="H53" s="47">
+        <v>1523614700</v>
+      </c>
+      <c r="I53" s="47">
+        <v>0</v>
+      </c>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+    </row>
+    <row r="54" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="39">
+        <v>42</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="47">
+        <v>20714051385</v>
+      </c>
+      <c r="E54" s="47">
+        <v>5531287725</v>
+      </c>
+      <c r="F54" s="47">
+        <v>1999277594</v>
+      </c>
+      <c r="G54" s="47">
+        <v>-459645634</v>
+      </c>
+      <c r="H54" s="47">
+        <v>7070919685</v>
+      </c>
+      <c r="I54" s="47">
+        <v>13643131700</v>
+      </c>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+    </row>
+    <row r="55" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="39">
+        <v>43</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="47">
+        <v>264699827</v>
+      </c>
+      <c r="E55" s="47">
+        <v>70773473</v>
+      </c>
+      <c r="F55" s="47">
+        <v>23791236</v>
+      </c>
+      <c r="G55" s="47">
+        <v>0</v>
+      </c>
+      <c r="H55" s="47">
+        <v>94564709</v>
+      </c>
+      <c r="I55" s="47">
+        <v>170135118</v>
+      </c>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+    </row>
+    <row r="56" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="39">
+        <v>44</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="47">
+        <v>468636484</v>
+      </c>
+      <c r="E56" s="47">
+        <v>356613335</v>
+      </c>
+      <c r="F56" s="47">
+        <v>31220198</v>
+      </c>
+      <c r="G56" s="47">
+        <v>-26130250</v>
+      </c>
+      <c r="H56" s="47">
+        <v>361703283</v>
+      </c>
+      <c r="I56" s="47">
+        <v>106933201</v>
+      </c>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+    </row>
+    <row r="57" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="39">
+        <v>45</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="47">
+        <v>116610918</v>
+      </c>
+      <c r="E57" s="47">
+        <v>109253774</v>
+      </c>
+      <c r="F57" s="47">
+        <v>1428572</v>
+      </c>
+      <c r="G57" s="47">
+        <v>-500000</v>
+      </c>
+      <c r="H57" s="47">
+        <v>110182346</v>
+      </c>
+      <c r="I57" s="47">
+        <v>6428572</v>
+      </c>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+    </row>
+    <row r="58" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="39">
+        <v>46</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="47">
+        <v>999564976</v>
+      </c>
+      <c r="E58" s="47">
+        <v>388154192</v>
+      </c>
+      <c r="F58" s="47">
+        <v>240727800</v>
+      </c>
+      <c r="G58" s="47">
+        <v>-2855000</v>
+      </c>
+      <c r="H58" s="47">
+        <v>626026992</v>
+      </c>
+      <c r="I58" s="47">
+        <v>373537984</v>
+      </c>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+    </row>
+    <row r="59" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="48">
+        <v>9582257029389</v>
+      </c>
+      <c r="E59" s="48">
+        <v>1138286798010</v>
+      </c>
+      <c r="F59" s="48">
+        <v>302450280607</v>
+      </c>
+      <c r="G59" s="48">
+        <v>86636520500</v>
+      </c>
+      <c r="H59" s="48">
+        <v>1527373599117</v>
+      </c>
+      <c r="I59" s="48">
+        <v>8054883430272</v>
+      </c>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+    </row>
+    <row r="60" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="39">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
+      <c r="B60" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="47">
+        <v>5499843700</v>
+      </c>
+      <c r="E60" s="47">
+        <v>5388941086</v>
+      </c>
+      <c r="F60" s="47">
+        <v>110902614</v>
+      </c>
+      <c r="G60" s="47">
+        <v>0</v>
+      </c>
+      <c r="H60" s="47">
+        <v>5499843700</v>
+      </c>
+      <c r="I60" s="47">
+        <v>0</v>
+      </c>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+    </row>
+    <row r="61" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="39">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="B61" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="47">
+        <v>8233483222555</v>
+      </c>
+      <c r="E61" s="47">
+        <v>941737415707</v>
+      </c>
+      <c r="F61" s="47">
+        <v>245435455689</v>
+      </c>
+      <c r="G61" s="47">
+        <v>75390411218</v>
+      </c>
+      <c r="H61" s="47">
+        <v>1262563282614</v>
+      </c>
+      <c r="I61" s="47">
+        <v>6970919939941</v>
+      </c>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+    </row>
+    <row r="62" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="39">
+        <v>3</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="47">
+        <v>1138463918930</v>
+      </c>
+      <c r="E62" s="47">
+        <v>174619809691</v>
+      </c>
+      <c r="F62" s="47">
+        <v>52038265550</v>
+      </c>
+      <c r="G62" s="47">
+        <v>11079534024</v>
+      </c>
+      <c r="H62" s="47">
+        <v>237737609265</v>
+      </c>
+      <c r="I62" s="47">
+        <v>900726309665</v>
+      </c>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+    </row>
+    <row r="63" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="39">
         <v>4</v>
       </c>
-      <c r="E12" s="6">
+      <c r="B63" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="47">
+        <v>418676000</v>
+      </c>
+      <c r="E63" s="47">
+        <v>24314874</v>
+      </c>
+      <c r="F63" s="47">
+        <v>9624736</v>
+      </c>
+      <c r="G63" s="47">
+        <v>0</v>
+      </c>
+      <c r="H63" s="47">
+        <v>33939610</v>
+      </c>
+      <c r="I63" s="47">
+        <v>384736390</v>
+      </c>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+    </row>
+    <row r="64" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="39">
         <v>5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="B64" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="47">
+        <v>2263954500</v>
+      </c>
+      <c r="E64" s="47">
+        <v>217301590</v>
+      </c>
+      <c r="F64" s="47">
+        <v>70393436</v>
+      </c>
+      <c r="G64" s="47">
+        <v>0</v>
+      </c>
+      <c r="H64" s="47">
+        <v>287695026</v>
+      </c>
+      <c r="I64" s="47">
+        <v>1976259474</v>
+      </c>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+    </row>
+    <row r="65" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="39">
         <v>6</v>
       </c>
-      <c r="G12" s="6">
+      <c r="B65" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="47">
+        <v>202127413704</v>
+      </c>
+      <c r="E65" s="47">
+        <v>16299015062</v>
+      </c>
+      <c r="F65" s="47">
+        <v>4785638582</v>
+      </c>
+      <c r="G65" s="47">
+        <v>166575258</v>
+      </c>
+      <c r="H65" s="47">
+        <v>21251228902</v>
+      </c>
+      <c r="I65" s="47">
+        <v>180876184802</v>
+      </c>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+    </row>
+    <row r="66" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="48">
+        <v>36520622225</v>
+      </c>
+      <c r="E66" s="48">
+        <v>10320249529</v>
+      </c>
+      <c r="F66" s="48">
+        <v>3649013783</v>
+      </c>
+      <c r="G66" s="48">
+        <v>647718371</v>
+      </c>
+      <c r="H66" s="48">
+        <v>14616981683</v>
+      </c>
+      <c r="I66" s="48">
+        <v>21903640542</v>
+      </c>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+    </row>
+    <row r="67" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="39">
+        <v>1</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="47">
+        <v>33698791225</v>
+      </c>
+      <c r="E67" s="47">
+        <v>10107577743</v>
+      </c>
+      <c r="F67" s="47">
+        <v>3580770446</v>
+      </c>
+      <c r="G67" s="47">
+        <v>648842949</v>
+      </c>
+      <c r="H67" s="47">
+        <v>14337191138</v>
+      </c>
+      <c r="I67" s="47">
+        <v>19361600087</v>
+      </c>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+    </row>
+    <row r="68" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="39">
+        <v>2</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="47">
+        <v>2821831000</v>
+      </c>
+      <c r="E68" s="47">
+        <v>212671786</v>
+      </c>
+      <c r="F68" s="47">
+        <v>68243337</v>
+      </c>
+      <c r="G68" s="47">
+        <v>-1124578</v>
+      </c>
+      <c r="H68" s="47">
+        <v>279790545</v>
+      </c>
+      <c r="I68" s="47">
+        <v>2542040455</v>
+      </c>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+    </row>
+    <row r="69" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="48">
+        <v>23376482850</v>
+      </c>
+      <c r="E69" s="48">
+        <v>3193792368</v>
+      </c>
+      <c r="F69" s="48">
+        <v>1310548215</v>
+      </c>
+      <c r="G69" s="48">
+        <v>-23368402</v>
+      </c>
+      <c r="H69" s="48">
+        <v>4480972181</v>
+      </c>
+      <c r="I69" s="48">
+        <v>18895510669</v>
+      </c>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+    </row>
+    <row r="70" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="39">
+        <v>1</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="47">
+        <v>2095568000</v>
+      </c>
+      <c r="E70" s="47">
+        <v>163077617</v>
+      </c>
+      <c r="F70" s="47">
+        <v>51381926</v>
+      </c>
+      <c r="G70" s="47">
+        <v>0</v>
+      </c>
+      <c r="H70" s="47">
+        <v>214459543</v>
+      </c>
+      <c r="I70" s="47">
+        <v>1881108457</v>
+      </c>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+    </row>
+    <row r="71" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="39">
+        <v>2</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="47">
+        <v>236461000</v>
+      </c>
+      <c r="E71" s="47">
+        <v>19420138</v>
+      </c>
+      <c r="F71" s="47">
+        <v>5946325</v>
+      </c>
+      <c r="G71" s="47">
+        <v>0</v>
+      </c>
+      <c r="H71" s="47">
+        <v>25366463</v>
+      </c>
+      <c r="I71" s="47">
+        <v>211094537</v>
+      </c>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+    </row>
+    <row r="72" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="39">
+        <v>3</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="47">
+        <v>54719000</v>
+      </c>
+      <c r="E72" s="47">
+        <v>10046888</v>
+      </c>
+      <c r="F72" s="47">
+        <v>3330722</v>
+      </c>
+      <c r="G72" s="47">
+        <v>0</v>
+      </c>
+      <c r="H72" s="47">
+        <v>13377610</v>
+      </c>
+      <c r="I72" s="47">
+        <v>41341390</v>
+      </c>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+    </row>
+    <row r="73" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="39">
+        <v>4</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="47">
+        <v>3858632681</v>
+      </c>
+      <c r="E73" s="47">
+        <v>1092017222</v>
+      </c>
+      <c r="F73" s="47">
+        <v>664729396</v>
+      </c>
+      <c r="G73" s="47">
+        <v>190000</v>
+      </c>
+      <c r="H73" s="47">
+        <v>1756936618</v>
+      </c>
+      <c r="I73" s="47">
+        <v>2101696063</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+    </row>
+    <row r="74" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="39">
+        <v>5</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="47">
+        <v>6407606112</v>
+      </c>
+      <c r="E74" s="47">
+        <v>870991514</v>
+      </c>
+      <c r="F74" s="47">
+        <v>267255547</v>
+      </c>
+      <c r="G74" s="47">
+        <v>-1953770</v>
+      </c>
+      <c r="H74" s="47">
+        <v>1136293291</v>
+      </c>
+      <c r="I74" s="47">
+        <v>5271312821</v>
+      </c>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+    </row>
+    <row r="75" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="39">
+        <v>6</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="47">
+        <v>5744456057</v>
+      </c>
+      <c r="E75" s="47">
+        <v>618420643</v>
+      </c>
+      <c r="F75" s="47">
+        <v>172454988</v>
+      </c>
+      <c r="G75" s="47">
+        <v>-12727451</v>
+      </c>
+      <c r="H75" s="47">
+        <v>778148180</v>
+      </c>
+      <c r="I75" s="47">
+        <v>4966307877</v>
+      </c>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+    </row>
+    <row r="76" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="39">
         <v>7</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="B76" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="47">
+        <v>4979040000</v>
+      </c>
+      <c r="E76" s="47">
+        <v>419818346</v>
+      </c>
+      <c r="F76" s="47">
+        <v>145449311</v>
+      </c>
+      <c r="G76" s="47">
+        <v>-8877181</v>
+      </c>
+      <c r="H76" s="47">
+        <v>556390476</v>
+      </c>
+      <c r="I76" s="47">
+        <v>4422649524</v>
+      </c>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+    </row>
+    <row r="77" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="48">
+        <v>197897314777</v>
+      </c>
+      <c r="E77" s="48">
+        <v>80084940368</v>
+      </c>
+      <c r="F77" s="48">
+        <v>5033187275</v>
+      </c>
+      <c r="G77" s="48">
+        <v>46349129</v>
+      </c>
+      <c r="H77" s="48">
+        <v>85164476772</v>
+      </c>
+      <c r="I77" s="48">
+        <v>112732838005</v>
+      </c>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+    </row>
+    <row r="78" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="39">
+        <v>1</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="47">
+        <v>13159509383</v>
+      </c>
+      <c r="E78" s="47">
+        <v>3943091681</v>
+      </c>
+      <c r="F78" s="47">
+        <v>438844779</v>
+      </c>
+      <c r="G78" s="47">
+        <v>6</v>
+      </c>
+      <c r="H78" s="47">
+        <v>4381936466</v>
+      </c>
+      <c r="I78" s="47">
+        <v>8777572917</v>
+      </c>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+    </row>
+    <row r="79" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="39">
+        <v>2</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="47">
+        <v>4609393349</v>
+      </c>
+      <c r="E79" s="47">
+        <v>1253726415</v>
+      </c>
+      <c r="F79" s="47">
+        <v>153646449</v>
+      </c>
+      <c r="G79" s="47">
+        <v>0</v>
+      </c>
+      <c r="H79" s="47">
+        <v>1407372864</v>
+      </c>
+      <c r="I79" s="47">
+        <v>3202020485</v>
+      </c>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+    </row>
+    <row r="80" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="39">
+        <v>3</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="47">
+        <v>590680659</v>
+      </c>
+      <c r="E80" s="47">
+        <v>585089408</v>
+      </c>
+      <c r="F80" s="47">
+        <v>5591251</v>
+      </c>
+      <c r="G80" s="47">
+        <v>0</v>
+      </c>
+      <c r="H80" s="47">
+        <v>590680659</v>
+      </c>
+      <c r="I80" s="47">
+        <v>0</v>
+      </c>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+    </row>
+    <row r="81" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="39">
+        <v>4</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="47">
+        <v>377496350</v>
+      </c>
+      <c r="E81" s="47">
+        <v>102098397</v>
+      </c>
+      <c r="F81" s="47">
+        <v>9452312</v>
+      </c>
+      <c r="G81" s="47">
+        <v>0</v>
+      </c>
+      <c r="H81" s="47">
+        <v>111550709</v>
+      </c>
+      <c r="I81" s="47">
+        <v>265945641</v>
+      </c>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+    </row>
+    <row r="82" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="39">
         <v>5</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="B82" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="47">
+        <v>78518327921</v>
+      </c>
+      <c r="E82" s="47">
+        <v>17136924658</v>
+      </c>
+      <c r="F82" s="47">
+        <v>1966576767</v>
+      </c>
+      <c r="G82" s="47">
+        <v>-1435975</v>
+      </c>
+      <c r="H82" s="47">
+        <v>19102065450</v>
+      </c>
+      <c r="I82" s="47">
+        <v>59416262471</v>
+      </c>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+    </row>
+    <row r="83" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="39">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="36">
-        <v>132111</v>
-      </c>
-      <c r="C13" s="36" t="s">
+      <c r="B83" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="47">
+        <v>74886000</v>
+      </c>
+      <c r="E83" s="47">
+        <v>23114323</v>
+      </c>
+      <c r="F83" s="47">
+        <v>2455643</v>
+      </c>
+      <c r="G83" s="47">
+        <v>122332</v>
+      </c>
+      <c r="H83" s="47">
+        <v>25692298</v>
+      </c>
+      <c r="I83" s="47">
+        <v>49193702</v>
+      </c>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+    </row>
+    <row r="84" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="39">
         <v>7</v>
       </c>
-      <c r="D13" s="39">
-        <v>3219863150451</v>
-      </c>
-      <c r="E13" s="39">
-        <v>2373361659571</v>
-      </c>
-      <c r="F13" s="39">
-        <v>275213119370</v>
-      </c>
-      <c r="G13" s="39">
-        <v>-21191581554</v>
-      </c>
-      <c r="H13" s="39">
-        <v>2627383197387</v>
-      </c>
-      <c r="I13" s="39">
-        <v>592479953064</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="B84" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="47">
+        <v>401902915</v>
+      </c>
+      <c r="E84" s="47">
+        <v>177296690</v>
+      </c>
+      <c r="F84" s="47">
+        <v>20020146</v>
+      </c>
+      <c r="G84" s="47">
+        <v>0</v>
+      </c>
+      <c r="H84" s="47">
+        <v>197316836</v>
+      </c>
+      <c r="I84" s="47">
+        <v>204586079</v>
+      </c>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+    </row>
+    <row r="85" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="39">
+        <v>8</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="47">
+        <v>43833646474</v>
+      </c>
+      <c r="E85" s="47">
+        <v>41993428186</v>
+      </c>
+      <c r="F85" s="47">
+        <v>748370800</v>
+      </c>
+      <c r="G85" s="47">
+        <v>235441225</v>
+      </c>
+      <c r="H85" s="47">
+        <v>42977240211</v>
+      </c>
+      <c r="I85" s="47">
+        <v>856406263</v>
+      </c>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+    </row>
+    <row r="86" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="39">
+        <v>9</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="47">
+        <v>1253088349</v>
+      </c>
+      <c r="E86" s="47">
+        <v>406540032</v>
+      </c>
+      <c r="F86" s="47">
+        <v>42079452</v>
+      </c>
+      <c r="G86" s="47">
+        <v>-663334</v>
+      </c>
+      <c r="H86" s="47">
+        <v>447956150</v>
+      </c>
+      <c r="I86" s="47">
+        <v>805132199</v>
+      </c>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+    </row>
+    <row r="87" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="39">
+        <v>10</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" s="47">
+        <v>42780822112</v>
+      </c>
+      <c r="E87" s="47">
+        <v>9372096328</v>
+      </c>
+      <c r="F87" s="47">
+        <v>1087511319</v>
+      </c>
+      <c r="G87" s="47">
+        <v>-308025</v>
+      </c>
+      <c r="H87" s="47">
+        <v>10459299622</v>
+      </c>
+      <c r="I87" s="47">
+        <v>32321522490</v>
+      </c>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+    </row>
+    <row r="88" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="39">
+        <v>11</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="47">
+        <v>8752270265</v>
+      </c>
+      <c r="E88" s="47">
+        <v>3259800571</v>
+      </c>
+      <c r="F88" s="47">
+        <v>440461990</v>
+      </c>
+      <c r="G88" s="47">
+        <v>-186807100</v>
+      </c>
+      <c r="H88" s="47">
+        <v>3513455461</v>
+      </c>
+      <c r="I88" s="47">
+        <v>5238814804</v>
+      </c>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+    </row>
+    <row r="89" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="39">
+        <v>12</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" s="47">
+        <v>3545291000</v>
+      </c>
+      <c r="E89" s="47">
+        <v>1831733679</v>
+      </c>
+      <c r="F89" s="47">
+        <v>118176367</v>
+      </c>
+      <c r="G89" s="47">
+        <v>0</v>
+      </c>
+      <c r="H89" s="47">
+        <v>1949910046</v>
+      </c>
+      <c r="I89" s="47">
+        <v>1595380954</v>
+      </c>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+    </row>
+    <row r="90" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="48">
+        <v>15949756336</v>
+      </c>
+      <c r="E90" s="48">
+        <v>777777208</v>
+      </c>
+      <c r="F90" s="48">
+        <v>285017535</v>
+      </c>
+      <c r="G90" s="48">
+        <v>-16436145</v>
+      </c>
+      <c r="H90" s="48">
+        <v>1046358598</v>
+      </c>
+      <c r="I90" s="48">
+        <v>14903397738</v>
+      </c>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+    </row>
+    <row r="91" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="39">
         <v>1</v>
       </c>
-      <c r="B14" s="33">
-        <v>30101</v>
-      </c>
-      <c r="C14" s="33" t="s">
+      <c r="B91" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="47">
+        <v>19995000</v>
+      </c>
+      <c r="E91" s="47">
+        <v>14996250</v>
+      </c>
+      <c r="F91" s="47">
+        <v>4998750</v>
+      </c>
+      <c r="G91" s="47">
+        <v>0</v>
+      </c>
+      <c r="H91" s="47">
+        <v>19995000</v>
+      </c>
+      <c r="I91" s="47">
+        <v>0</v>
+      </c>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+    </row>
+    <row r="92" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="39">
+        <v>2</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="47">
+        <v>15929761336</v>
+      </c>
+      <c r="E92" s="47">
+        <v>762780958</v>
+      </c>
+      <c r="F92" s="47">
+        <v>280018785</v>
+      </c>
+      <c r="G92" s="47">
+        <v>-16436145</v>
+      </c>
+      <c r="H92" s="47">
+        <v>1026363598</v>
+      </c>
+      <c r="I92" s="47">
+        <v>14903397738</v>
+      </c>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+    </row>
+    <row r="93" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="39">
+        <v>3</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="47">
+        <v>0</v>
+      </c>
+      <c r="E93" s="47">
+        <v>0</v>
+      </c>
+      <c r="F93" s="47">
+        <v>0</v>
+      </c>
+      <c r="G93" s="47">
+        <v>0</v>
+      </c>
+      <c r="H93" s="47">
+        <v>0</v>
+      </c>
+      <c r="I93" s="47">
+        <v>0</v>
+      </c>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+    </row>
+    <row r="94" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="48">
+        <v>2273650917</v>
+      </c>
+      <c r="E94" s="48">
+        <v>531778805</v>
+      </c>
+      <c r="F94" s="48">
+        <v>14480218</v>
+      </c>
+      <c r="G94" s="48">
+        <v>-16911805</v>
+      </c>
+      <c r="H94" s="48">
+        <v>529347218</v>
+      </c>
+      <c r="I94" s="48">
+        <v>1744303699</v>
+      </c>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+    </row>
+    <row r="95" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="39">
+        <v>1</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" s="47">
+        <v>2273650917</v>
+      </c>
+      <c r="E95" s="47">
+        <v>531778805</v>
+      </c>
+      <c r="F95" s="47">
+        <v>14480218</v>
+      </c>
+      <c r="G95" s="47">
+        <v>-16911805</v>
+      </c>
+      <c r="H95" s="47">
+        <v>529347218</v>
+      </c>
+      <c r="I95" s="47">
+        <v>1744303699</v>
+      </c>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+    </row>
+    <row r="96" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D96" s="48">
+        <v>157125712144</v>
+      </c>
+      <c r="E96" s="48">
+        <v>115097861981</v>
+      </c>
+      <c r="F96" s="48">
+        <v>671586833</v>
+      </c>
+      <c r="G96" s="48">
+        <v>28977893395</v>
+      </c>
+      <c r="H96" s="48">
+        <v>144747342209</v>
+      </c>
+      <c r="I96" s="48">
+        <v>12378369935</v>
+      </c>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+    </row>
+    <row r="97" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="39">
+        <v>1</v>
+      </c>
+      <c r="B97" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40">
-        <v>172000000</v>
-      </c>
-      <c r="E14" s="40">
-        <v>92733244</v>
-      </c>
-      <c r="F14" s="40">
-        <v>15500000</v>
-      </c>
-      <c r="G14" s="40">
-        <v>-10733244</v>
-      </c>
-      <c r="H14" s="40">
-        <v>97500000</v>
-      </c>
-      <c r="I14" s="40">
-        <v>74500000</v>
-      </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+      <c r="D97" s="47">
+        <v>10096244</v>
+      </c>
+      <c r="E97" s="47">
+        <v>10096244</v>
+      </c>
+      <c r="F97" s="47">
+        <v>0</v>
+      </c>
+      <c r="G97" s="47">
+        <v>0</v>
+      </c>
+      <c r="H97" s="47">
+        <v>10096244</v>
+      </c>
+      <c r="I97" s="47">
+        <v>0</v>
+      </c>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+    </row>
+    <row r="98" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="39">
         <v>2</v>
       </c>
-      <c r="B15" s="33">
-        <v>30103</v>
-      </c>
-      <c r="C15" s="33" t="s">
+      <c r="B98" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="40">
-        <v>96074710663</v>
-      </c>
-      <c r="E15" s="40">
-        <v>66235629737</v>
-      </c>
-      <c r="F15" s="40">
-        <v>8073471356</v>
-      </c>
-      <c r="G15" s="40">
-        <v>-482994319</v>
-      </c>
-      <c r="H15" s="40">
-        <v>73826106774</v>
-      </c>
-      <c r="I15" s="40">
-        <v>22248603889</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33">
+      <c r="D98" s="47">
+        <v>2681218781</v>
+      </c>
+      <c r="E98" s="47">
+        <v>1855081531</v>
+      </c>
+      <c r="F98" s="47">
+        <v>16632143</v>
+      </c>
+      <c r="G98" s="47">
+        <v>808362250</v>
+      </c>
+      <c r="H98" s="47">
+        <v>2680075924</v>
+      </c>
+      <c r="I98" s="47">
+        <v>1142857</v>
+      </c>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+    </row>
+    <row r="99" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="39">
         <v>3</v>
       </c>
-      <c r="B16" s="33">
-        <v>30201</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="B99" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="40">
-        <v>536447086492</v>
-      </c>
-      <c r="E16" s="40">
-        <v>467386841125</v>
-      </c>
-      <c r="F16" s="40">
-        <v>15217799422</v>
-      </c>
-      <c r="G16" s="40">
-        <v>574766295</v>
-      </c>
-      <c r="H16" s="40">
-        <v>483179406842</v>
-      </c>
-      <c r="I16" s="40">
-        <v>53267679650</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33">
+      <c r="D99" s="47">
+        <v>9190890517</v>
+      </c>
+      <c r="E99" s="47">
+        <v>10463592036</v>
+      </c>
+      <c r="F99" s="47">
+        <v>9389045</v>
+      </c>
+      <c r="G99" s="47">
+        <v>-1285304850</v>
+      </c>
+      <c r="H99" s="47">
+        <v>9187676231</v>
+      </c>
+      <c r="I99" s="47">
+        <v>3214286</v>
+      </c>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+    </row>
+    <row r="100" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="39">
         <v>4</v>
       </c>
-      <c r="B17" s="33">
-        <v>30202</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="B100" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="40">
-        <v>602589137</v>
-      </c>
-      <c r="E17" s="40">
-        <v>598677037</v>
-      </c>
-      <c r="F17" s="40">
-        <v>12179100</v>
-      </c>
-      <c r="G17" s="40">
-        <v>-9392000</v>
-      </c>
-      <c r="H17" s="40">
-        <v>601464137</v>
-      </c>
-      <c r="I17" s="40">
-        <v>1125000</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="D100" s="47">
+        <v>13961200</v>
+      </c>
+      <c r="E100" s="47">
+        <v>15271700</v>
+      </c>
+      <c r="F100" s="47">
+        <v>0</v>
+      </c>
+      <c r="G100" s="47">
+        <v>-1310500</v>
+      </c>
+      <c r="H100" s="47">
+        <v>13961200</v>
+      </c>
+      <c r="I100" s="47">
+        <v>0</v>
+      </c>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+    </row>
+    <row r="101" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="39">
         <v>5</v>
       </c>
-      <c r="B18" s="33">
-        <v>30203</v>
-      </c>
-      <c r="C18" s="33" t="s">
+      <c r="B101" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="40">
-        <v>0</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
-      </c>
-      <c r="F18" s="40">
-        <v>0</v>
-      </c>
-      <c r="G18" s="40">
-        <v>0</v>
-      </c>
-      <c r="H18" s="40">
-        <v>0</v>
-      </c>
-      <c r="I18" s="40">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33">
+      <c r="D101" s="47">
+        <v>623405000</v>
+      </c>
+      <c r="E101" s="47">
+        <v>623405000</v>
+      </c>
+      <c r="F101" s="47">
+        <v>0</v>
+      </c>
+      <c r="G101" s="47">
+        <v>0</v>
+      </c>
+      <c r="H101" s="47">
+        <v>623405000</v>
+      </c>
+      <c r="I101" s="47">
+        <v>0</v>
+      </c>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+    </row>
+    <row r="102" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="39">
         <v>6</v>
       </c>
-      <c r="B19" s="33">
-        <v>30204</v>
-      </c>
-      <c r="C19" s="33" t="s">
+      <c r="B102" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="47">
+        <v>4906000</v>
+      </c>
+      <c r="E102" s="47">
+        <v>4810700</v>
+      </c>
+      <c r="F102" s="47">
+        <v>95300</v>
+      </c>
+      <c r="G102" s="47">
+        <v>0</v>
+      </c>
+      <c r="H102" s="47">
+        <v>4906000</v>
+      </c>
+      <c r="I102" s="47">
+        <v>0</v>
+      </c>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+    </row>
+    <row r="103" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="39">
+        <v>7</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="47">
+        <v>87535370</v>
+      </c>
+      <c r="E103" s="47">
+        <v>44326423</v>
+      </c>
+      <c r="F103" s="47">
+        <v>574704</v>
+      </c>
+      <c r="G103" s="47">
+        <v>42634243</v>
+      </c>
+      <c r="H103" s="47">
+        <v>87535370</v>
+      </c>
+      <c r="I103" s="47">
+        <v>0</v>
+      </c>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+    </row>
+    <row r="104" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="39">
+        <v>8</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="47">
+        <v>104374040</v>
+      </c>
+      <c r="E104" s="47">
+        <v>235723682</v>
+      </c>
+      <c r="F104" s="47">
+        <v>-1178000</v>
+      </c>
+      <c r="G104" s="47">
+        <v>-130171642</v>
+      </c>
+      <c r="H104" s="47">
+        <v>104374040</v>
+      </c>
+      <c r="I104" s="47">
+        <v>0</v>
+      </c>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+    </row>
+    <row r="105" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="39">
+        <v>9</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="47">
+        <v>208495761</v>
+      </c>
+      <c r="E105" s="47">
+        <v>87042661</v>
+      </c>
+      <c r="F105" s="47">
+        <v>0</v>
+      </c>
+      <c r="G105" s="47">
+        <v>121453100</v>
+      </c>
+      <c r="H105" s="47">
+        <v>208495761</v>
+      </c>
+      <c r="I105" s="47">
+        <v>0</v>
+      </c>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+    </row>
+    <row r="106" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="39">
+        <v>10</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="47">
+        <v>17566808883</v>
+      </c>
+      <c r="E106" s="47">
+        <v>15629967965</v>
+      </c>
+      <c r="F106" s="47">
+        <v>-17875491</v>
+      </c>
+      <c r="G106" s="47">
+        <v>1950999169</v>
+      </c>
+      <c r="H106" s="47">
+        <v>17563091643</v>
+      </c>
+      <c r="I106" s="47">
+        <v>3717240</v>
+      </c>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+    </row>
+    <row r="107" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="39">
+        <v>11</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="47">
+        <v>34132739810</v>
+      </c>
+      <c r="E107" s="47">
+        <v>27160641599</v>
+      </c>
+      <c r="F107" s="47">
+        <v>62304768</v>
+      </c>
+      <c r="G107" s="47">
+        <v>6870449201</v>
+      </c>
+      <c r="H107" s="47">
+        <v>34093395568</v>
+      </c>
+      <c r="I107" s="47">
+        <v>39344242</v>
+      </c>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+    </row>
+    <row r="108" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="39">
+        <v>12</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="47">
+        <v>10910625886</v>
+      </c>
+      <c r="E108" s="47">
+        <v>1525591962</v>
+      </c>
+      <c r="F108" s="47">
+        <v>30016969</v>
+      </c>
+      <c r="G108" s="47">
+        <v>9330872701</v>
+      </c>
+      <c r="H108" s="47">
+        <v>10886481632</v>
+      </c>
+      <c r="I108" s="47">
+        <v>24144254</v>
+      </c>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+    </row>
+    <row r="109" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="39">
         <v>13</v>
       </c>
-      <c r="D19" s="40">
-        <v>0</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0</v>
-      </c>
-      <c r="F19" s="40">
-        <v>0</v>
-      </c>
-      <c r="G19" s="40">
-        <v>0</v>
-      </c>
-      <c r="H19" s="40">
-        <v>0</v>
-      </c>
-      <c r="I19" s="40">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="20" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
-        <v>7</v>
-      </c>
-      <c r="B20" s="33">
-        <v>30205</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="B109" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="47">
+        <v>2183106029</v>
+      </c>
+      <c r="E109" s="47">
+        <v>1903782254</v>
+      </c>
+      <c r="F109" s="47">
+        <v>4418540</v>
+      </c>
+      <c r="G109" s="47">
+        <v>271960175</v>
+      </c>
+      <c r="H109" s="47">
+        <v>2180160969</v>
+      </c>
+      <c r="I109" s="47">
+        <v>2945060</v>
+      </c>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+    </row>
+    <row r="110" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="39">
         <v>14</v>
       </c>
-      <c r="D20" s="40">
-        <v>0</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0</v>
-      </c>
-      <c r="F20" s="40">
-        <v>0</v>
-      </c>
-      <c r="G20" s="40">
-        <v>0</v>
-      </c>
-      <c r="H20" s="40">
-        <v>0</v>
-      </c>
-      <c r="I20" s="40">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-    </row>
-    <row r="21" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33">
-        <v>8</v>
-      </c>
-      <c r="B21" s="33">
-        <v>30301</v>
-      </c>
-      <c r="C21" s="33" t="s">
+      <c r="B110" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="47">
+        <v>1362492609</v>
+      </c>
+      <c r="E110" s="47">
+        <v>393658681</v>
+      </c>
+      <c r="F110" s="47">
+        <v>20446007</v>
+      </c>
+      <c r="G110" s="47">
+        <v>865666474</v>
+      </c>
+      <c r="H110" s="47">
+        <v>1279771162</v>
+      </c>
+      <c r="I110" s="47">
+        <v>82721447</v>
+      </c>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+    </row>
+    <row r="111" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="39">
         <v>15</v>
       </c>
-      <c r="D21" s="40">
-        <v>4947380741</v>
-      </c>
-      <c r="E21" s="40">
-        <v>4067526675</v>
-      </c>
-      <c r="F21" s="40">
-        <v>304248780</v>
-      </c>
-      <c r="G21" s="40">
-        <v>879900</v>
-      </c>
-      <c r="H21" s="40">
-        <v>4372655355</v>
-      </c>
-      <c r="I21" s="40">
-        <v>574725386</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-    </row>
-    <row r="22" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33">
-        <v>9</v>
-      </c>
-      <c r="B22" s="33">
-        <v>30302</v>
-      </c>
-      <c r="C22" s="33" t="s">
+      <c r="B111" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="47">
+        <v>831002667</v>
+      </c>
+      <c r="E111" s="47">
+        <v>224153750</v>
+      </c>
+      <c r="F111" s="47">
+        <v>-1956125</v>
+      </c>
+      <c r="G111" s="47">
+        <v>608505042</v>
+      </c>
+      <c r="H111" s="47">
+        <v>830702667</v>
+      </c>
+      <c r="I111" s="47">
+        <v>300000</v>
+      </c>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+    </row>
+    <row r="112" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="39">
         <v>16</v>
       </c>
-      <c r="D22" s="40">
-        <v>806742513</v>
-      </c>
-      <c r="E22" s="40">
-        <v>629917486</v>
-      </c>
-      <c r="F22" s="40">
-        <v>94906652</v>
-      </c>
-      <c r="G22" s="40">
-        <v>-17275000</v>
-      </c>
-      <c r="H22" s="40">
-        <v>707549138</v>
-      </c>
-      <c r="I22" s="40">
-        <v>99193375</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-    </row>
-    <row r="23" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33">
-        <v>10</v>
-      </c>
-      <c r="B23" s="33">
-        <v>30303</v>
-      </c>
-      <c r="C23" s="33" t="s">
+      <c r="B112" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="47">
+        <v>69301000</v>
+      </c>
+      <c r="E112" s="47">
+        <v>1000</v>
+      </c>
+      <c r="F112" s="47">
+        <v>6930000</v>
+      </c>
+      <c r="G112" s="47">
+        <v>13860000</v>
+      </c>
+      <c r="H112" s="47">
+        <v>20791000</v>
+      </c>
+      <c r="I112" s="47">
+        <v>48510000</v>
+      </c>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+    </row>
+    <row r="113" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="39">
         <v>17</v>
       </c>
-      <c r="D23" s="40">
-        <v>2157199662</v>
-      </c>
-      <c r="E23" s="40">
-        <v>1414899452</v>
-      </c>
-      <c r="F23" s="40">
-        <v>297392066</v>
-      </c>
-      <c r="G23" s="40">
-        <v>-102496000</v>
-      </c>
-      <c r="H23" s="40">
-        <v>1609795518</v>
-      </c>
-      <c r="I23" s="40">
-        <v>547404144</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-    </row>
-    <row r="24" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33">
-        <v>11</v>
-      </c>
-      <c r="B24" s="33">
-        <v>30401</v>
-      </c>
-      <c r="C24" s="33" t="s">
+      <c r="B113" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="47">
+        <v>474571040</v>
+      </c>
+      <c r="E113" s="47">
+        <v>449621885</v>
+      </c>
+      <c r="F113" s="47">
+        <v>1298125</v>
+      </c>
+      <c r="G113" s="47">
+        <v>19276030</v>
+      </c>
+      <c r="H113" s="47">
+        <v>470196040</v>
+      </c>
+      <c r="I113" s="47">
+        <v>4375000</v>
+      </c>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+    </row>
+    <row r="114" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="39">
         <v>18</v>
       </c>
-      <c r="D24" s="40">
-        <v>3872425641</v>
-      </c>
-      <c r="E24" s="40">
-        <v>3441714680</v>
-      </c>
-      <c r="F24" s="40">
-        <v>332538806</v>
-      </c>
-      <c r="G24" s="40">
-        <v>-123446648</v>
-      </c>
-      <c r="H24" s="40">
-        <v>3650806838</v>
-      </c>
-      <c r="I24" s="40">
-        <v>221618803</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-    </row>
-    <row r="25" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33">
-        <v>12</v>
-      </c>
-      <c r="B25" s="33">
-        <v>30501</v>
-      </c>
-      <c r="C25" s="33" t="s">
+      <c r="B114" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="47">
+        <v>0</v>
+      </c>
+      <c r="E114" s="47">
+        <v>1533330</v>
+      </c>
+      <c r="F114" s="47">
+        <v>0</v>
+      </c>
+      <c r="G114" s="47">
+        <v>-1533330</v>
+      </c>
+      <c r="H114" s="47">
+        <v>0</v>
+      </c>
+      <c r="I114" s="47">
+        <v>0</v>
+      </c>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+    </row>
+    <row r="115" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="39">
         <v>19</v>
       </c>
-      <c r="D25" s="40">
-        <v>432397080167</v>
-      </c>
-      <c r="E25" s="40">
-        <v>351655712893</v>
-      </c>
-      <c r="F25" s="40">
-        <v>30094847446</v>
-      </c>
-      <c r="G25" s="40">
-        <v>-1865877585</v>
-      </c>
-      <c r="H25" s="40">
-        <v>379884682754</v>
-      </c>
-      <c r="I25" s="40">
-        <v>52512397413</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-    </row>
-    <row r="26" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
-        <v>13</v>
-      </c>
-      <c r="B26" s="33">
-        <v>30502</v>
-      </c>
-      <c r="C26" s="33" t="s">
+      <c r="B115" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="47">
+        <v>77112750</v>
+      </c>
+      <c r="E115" s="47">
+        <v>48403958</v>
+      </c>
+      <c r="F115" s="47">
+        <v>4324475</v>
+      </c>
+      <c r="G115" s="47">
+        <v>-2621270</v>
+      </c>
+      <c r="H115" s="47">
+        <v>50107163</v>
+      </c>
+      <c r="I115" s="47">
+        <v>27005587</v>
+      </c>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+    </row>
+    <row r="116" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="39">
         <v>20</v>
       </c>
-      <c r="D26" s="40">
-        <v>918500618774</v>
-      </c>
-      <c r="E26" s="40">
-        <v>718125349478</v>
-      </c>
-      <c r="F26" s="40">
-        <v>77087417919</v>
-      </c>
-      <c r="G26" s="40">
-        <v>-6410272621</v>
-      </c>
-      <c r="H26" s="40">
-        <v>788802494776</v>
-      </c>
-      <c r="I26" s="40">
-        <v>129698123998</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33">
-        <v>14</v>
-      </c>
-      <c r="B27" s="33">
-        <v>30601</v>
-      </c>
-      <c r="C27" s="33" t="s">
+      <c r="B116" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="47">
+        <v>350000</v>
+      </c>
+      <c r="E116" s="47">
+        <v>350000</v>
+      </c>
+      <c r="F116" s="47">
+        <v>0</v>
+      </c>
+      <c r="G116" s="47">
+        <v>0</v>
+      </c>
+      <c r="H116" s="47">
+        <v>350000</v>
+      </c>
+      <c r="I116" s="47">
+        <v>0</v>
+      </c>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+    </row>
+    <row r="117" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="39">
         <v>21</v>
       </c>
-      <c r="D27" s="40">
-        <v>112893639879</v>
-      </c>
-      <c r="E27" s="40">
-        <v>71558845353</v>
-      </c>
-      <c r="F27" s="40">
-        <v>11082988082</v>
-      </c>
-      <c r="G27" s="40">
-        <v>-388892103</v>
-      </c>
-      <c r="H27" s="40">
-        <v>82252941332</v>
-      </c>
-      <c r="I27" s="40">
-        <v>30640698547</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-    </row>
-    <row r="28" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33">
-        <v>15</v>
-      </c>
-      <c r="B28" s="33">
-        <v>30602</v>
-      </c>
-      <c r="C28" s="33" t="s">
+      <c r="B117" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="47">
+        <v>0</v>
+      </c>
+      <c r="E117" s="47">
+        <v>0</v>
+      </c>
+      <c r="F117" s="47">
+        <v>0</v>
+      </c>
+      <c r="G117" s="47">
+        <v>0</v>
+      </c>
+      <c r="H117" s="47">
+        <v>0</v>
+      </c>
+      <c r="I117" s="47">
+        <v>0</v>
+      </c>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+    </row>
+    <row r="118" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="39">
         <v>22</v>
       </c>
-      <c r="D28" s="40">
-        <v>38913947436</v>
-      </c>
-      <c r="E28" s="40">
-        <v>35954542347</v>
-      </c>
-      <c r="F28" s="40">
-        <v>1139968055</v>
-      </c>
-      <c r="G28" s="40">
-        <v>-302510147</v>
-      </c>
-      <c r="H28" s="40">
-        <v>36792000255</v>
-      </c>
-      <c r="I28" s="40">
-        <v>2121947181</v>
-      </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-    </row>
-    <row r="29" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33">
-        <v>16</v>
-      </c>
-      <c r="B29" s="33">
-        <v>30603</v>
-      </c>
-      <c r="C29" s="33" t="s">
+      <c r="B118" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="47">
+        <v>8485000</v>
+      </c>
+      <c r="E118" s="47">
+        <v>7353666</v>
+      </c>
+      <c r="F118" s="47">
+        <v>565667</v>
+      </c>
+      <c r="G118" s="47">
+        <v>0</v>
+      </c>
+      <c r="H118" s="47">
+        <v>7919333</v>
+      </c>
+      <c r="I118" s="47">
+        <v>565667</v>
+      </c>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+    </row>
+    <row r="119" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="39">
         <v>23</v>
       </c>
-      <c r="D29" s="40">
-        <v>67351564401</v>
-      </c>
-      <c r="E29" s="40">
-        <v>26429938949</v>
-      </c>
-      <c r="F29" s="40">
-        <v>5841344891</v>
-      </c>
-      <c r="G29" s="40">
-        <v>-228821250</v>
-      </c>
-      <c r="H29" s="40">
-        <v>32042462590</v>
-      </c>
-      <c r="I29" s="40">
-        <v>35309101811</v>
-      </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-    </row>
-    <row r="30" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33">
-        <v>17</v>
-      </c>
-      <c r="B30" s="33">
-        <v>30604</v>
-      </c>
-      <c r="C30" s="33" t="s">
+      <c r="B119" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="47">
+        <v>0</v>
+      </c>
+      <c r="E119" s="47">
+        <v>0</v>
+      </c>
+      <c r="F119" s="47">
+        <v>0</v>
+      </c>
+      <c r="G119" s="47">
+        <v>0</v>
+      </c>
+      <c r="H119" s="47">
+        <v>0</v>
+      </c>
+      <c r="I119" s="47">
+        <v>0</v>
+      </c>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+    </row>
+    <row r="120" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="39">
         <v>24</v>
       </c>
-      <c r="D30" s="40">
-        <v>126587000</v>
-      </c>
-      <c r="E30" s="40">
-        <v>89411265</v>
-      </c>
-      <c r="F30" s="40">
-        <v>8354527</v>
-      </c>
-      <c r="G30" s="40">
-        <v>0</v>
-      </c>
-      <c r="H30" s="40">
-        <v>97765792</v>
-      </c>
-      <c r="I30" s="40">
-        <v>28821208</v>
-      </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-    </row>
-    <row r="31" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33">
-        <v>18</v>
-      </c>
-      <c r="B31" s="33">
-        <v>30701</v>
-      </c>
-      <c r="C31" s="33" t="s">
+      <c r="B120" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="47">
+        <v>4426001</v>
+      </c>
+      <c r="E120" s="47">
+        <v>3996668</v>
+      </c>
+      <c r="F120" s="47">
+        <v>733333</v>
+      </c>
+      <c r="G120" s="47">
+        <v>-304000</v>
+      </c>
+      <c r="H120" s="47">
+        <v>4426001</v>
+      </c>
+      <c r="I120" s="47">
+        <v>0</v>
+      </c>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+    </row>
+    <row r="121" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="39">
         <v>25</v>
       </c>
-      <c r="D31" s="40">
-        <v>7647126615</v>
-      </c>
-      <c r="E31" s="40">
-        <v>7037248649</v>
-      </c>
-      <c r="F31" s="40">
-        <v>259418072</v>
-      </c>
-      <c r="G31" s="40">
-        <v>-132763415</v>
-      </c>
-      <c r="H31" s="40">
-        <v>7163903306</v>
-      </c>
-      <c r="I31" s="40">
-        <v>483223309</v>
-      </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-    </row>
-    <row r="32" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
-        <v>19</v>
-      </c>
-      <c r="B32" s="33">
-        <v>30702</v>
-      </c>
-      <c r="C32" s="33" t="s">
+      <c r="B121" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="47">
+        <v>11000000</v>
+      </c>
+      <c r="E121" s="47">
+        <v>32306700</v>
+      </c>
+      <c r="F121" s="47">
+        <v>0</v>
+      </c>
+      <c r="G121" s="47">
+        <v>-21306700</v>
+      </c>
+      <c r="H121" s="47">
+        <v>11000000</v>
+      </c>
+      <c r="I121" s="47">
+        <v>0</v>
+      </c>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+    </row>
+    <row r="122" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="39">
         <v>26</v>
       </c>
-      <c r="D32" s="40">
-        <v>838043300</v>
-      </c>
-      <c r="E32" s="40">
-        <v>283504300</v>
-      </c>
-      <c r="F32" s="40">
-        <v>61455900</v>
-      </c>
-      <c r="G32" s="40">
-        <v>18150000</v>
-      </c>
-      <c r="H32" s="40">
-        <v>363110200</v>
-      </c>
-      <c r="I32" s="40">
-        <v>474933100</v>
-      </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-    </row>
-    <row r="33" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="33">
-        <v>20</v>
-      </c>
-      <c r="B33" s="33">
-        <v>30801</v>
-      </c>
-      <c r="C33" s="33" t="s">
+      <c r="B122" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="47">
+        <v>47245201696</v>
+      </c>
+      <c r="E122" s="47">
+        <v>38483516549</v>
+      </c>
+      <c r="F122" s="47">
+        <v>-90065015</v>
+      </c>
+      <c r="G122" s="47">
+        <v>8776916713</v>
+      </c>
+      <c r="H122" s="47">
+        <v>47170368247</v>
+      </c>
+      <c r="I122" s="47">
+        <v>74833449</v>
+      </c>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+    </row>
+    <row r="123" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="39">
         <v>27</v>
       </c>
-      <c r="D33" s="40">
-        <v>7883314082</v>
-      </c>
-      <c r="E33" s="40">
-        <v>3665989645</v>
-      </c>
-      <c r="F33" s="40">
-        <v>648102556</v>
-      </c>
-      <c r="G33" s="40">
-        <v>-45169183</v>
-      </c>
-      <c r="H33" s="40">
-        <v>4268923018</v>
-      </c>
-      <c r="I33" s="40">
-        <v>3614391064</v>
-      </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-    </row>
-    <row r="34" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33">
-        <v>21</v>
-      </c>
-      <c r="B34" s="33">
-        <v>30802</v>
-      </c>
-      <c r="C34" s="33" t="s">
+      <c r="B123" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="47">
+        <v>7655433251</v>
+      </c>
+      <c r="E123" s="47">
+        <v>6443911631</v>
+      </c>
+      <c r="F123" s="47">
+        <v>-61635963</v>
+      </c>
+      <c r="G123" s="47">
+        <v>1270859035</v>
+      </c>
+      <c r="H123" s="47">
+        <v>7653134703</v>
+      </c>
+      <c r="I123" s="47">
+        <v>2298548</v>
+      </c>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+    </row>
+    <row r="124" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="39">
         <v>28</v>
       </c>
-      <c r="D34" s="40">
-        <v>150386616</v>
-      </c>
-      <c r="E34" s="40">
-        <v>57962410</v>
-      </c>
-      <c r="F34" s="40">
-        <v>9310775</v>
-      </c>
-      <c r="G34" s="40">
-        <v>-283251</v>
-      </c>
-      <c r="H34" s="40">
-        <v>66989934</v>
-      </c>
-      <c r="I34" s="40">
-        <v>83396682</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-    </row>
-    <row r="35" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33">
-        <v>22</v>
-      </c>
-      <c r="B35" s="33">
-        <v>30803</v>
-      </c>
-      <c r="C35" s="33" t="s">
+      <c r="B124" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="47">
+        <v>0</v>
+      </c>
+      <c r="E124" s="47">
+        <v>0</v>
+      </c>
+      <c r="F124" s="47">
+        <v>0</v>
+      </c>
+      <c r="G124" s="47">
+        <v>0</v>
+      </c>
+      <c r="H124" s="47">
+        <v>0</v>
+      </c>
+      <c r="I124" s="47">
+        <v>0</v>
+      </c>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+    </row>
+    <row r="125" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="39">
         <v>29</v>
       </c>
-      <c r="D35" s="40">
-        <v>1137113582</v>
-      </c>
-      <c r="E35" s="40">
-        <v>298652822</v>
-      </c>
-      <c r="F35" s="40">
-        <v>75820217</v>
-      </c>
-      <c r="G35" s="40">
-        <v>-8760996</v>
-      </c>
-      <c r="H35" s="40">
-        <v>365712043</v>
-      </c>
-      <c r="I35" s="40">
-        <v>771401539</v>
-      </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-    </row>
-    <row r="36" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33">
-        <v>23</v>
-      </c>
-      <c r="B36" s="33">
-        <v>30804</v>
-      </c>
-      <c r="C36" s="33" t="s">
+      <c r="B125" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="47">
+        <v>0</v>
+      </c>
+      <c r="E125" s="47">
+        <v>44715000</v>
+      </c>
+      <c r="F125" s="47">
+        <v>0</v>
+      </c>
+      <c r="G125" s="47">
+        <v>-44715000</v>
+      </c>
+      <c r="H125" s="47">
+        <v>0</v>
+      </c>
+      <c r="I125" s="47">
+        <v>0</v>
+      </c>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+    </row>
+    <row r="126" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="39">
         <v>30</v>
       </c>
-      <c r="D36" s="40">
-        <v>333051800</v>
-      </c>
-      <c r="E36" s="40">
-        <v>1410540</v>
-      </c>
-      <c r="F36" s="40">
-        <v>16887680</v>
-      </c>
-      <c r="G36" s="40">
-        <v>16417500</v>
-      </c>
-      <c r="H36" s="40">
-        <v>34715720</v>
-      </c>
-      <c r="I36" s="40">
-        <v>298336080</v>
-      </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-    </row>
-    <row r="37" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="33">
-        <v>24</v>
-      </c>
-      <c r="B37" s="33">
-        <v>30805</v>
-      </c>
-      <c r="C37" s="33" t="s">
+      <c r="B126" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" s="47">
+        <v>3500000</v>
+      </c>
+      <c r="E126" s="47">
+        <v>3500000</v>
+      </c>
+      <c r="F126" s="47">
+        <v>0</v>
+      </c>
+      <c r="G126" s="47">
+        <v>0</v>
+      </c>
+      <c r="H126" s="47">
+        <v>3500000</v>
+      </c>
+      <c r="I126" s="47">
+        <v>0</v>
+      </c>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
+    </row>
+    <row r="127" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="39">
         <v>31</v>
       </c>
-      <c r="D37" s="40">
-        <v>0</v>
-      </c>
-      <c r="E37" s="40">
-        <v>0</v>
-      </c>
-      <c r="F37" s="40">
-        <v>0</v>
-      </c>
-      <c r="G37" s="40">
-        <v>0</v>
-      </c>
-      <c r="H37" s="40">
-        <v>0</v>
-      </c>
-      <c r="I37" s="40">
-        <v>0</v>
-      </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-    </row>
-    <row r="38" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33">
-        <v>25</v>
-      </c>
-      <c r="B38" s="33">
-        <v>30806</v>
-      </c>
-      <c r="C38" s="33" t="s">
+      <c r="B127" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" s="47">
+        <v>0</v>
+      </c>
+      <c r="E127" s="47">
+        <v>0</v>
+      </c>
+      <c r="F127" s="47">
+        <v>0</v>
+      </c>
+      <c r="G127" s="47">
+        <v>0</v>
+      </c>
+      <c r="H127" s="47">
+        <v>0</v>
+      </c>
+      <c r="I127" s="47">
+        <v>0</v>
+      </c>
+      <c r="J127" s="21"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="21"/>
+    </row>
+    <row r="128" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="39">
         <v>32</v>
       </c>
-      <c r="D38" s="40">
-        <v>2530178</v>
-      </c>
-      <c r="E38" s="40">
-        <v>2530178</v>
-      </c>
-      <c r="F38" s="40">
-        <v>0</v>
-      </c>
-      <c r="G38" s="40">
-        <v>0</v>
-      </c>
-      <c r="H38" s="40">
-        <v>2530178</v>
-      </c>
-      <c r="I38" s="40">
-        <v>0</v>
-      </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-    </row>
-    <row r="39" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33">
-        <v>26</v>
-      </c>
-      <c r="B39" s="33">
-        <v>30807</v>
-      </c>
-      <c r="C39" s="33" t="s">
+      <c r="B128" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" s="47">
+        <v>0</v>
+      </c>
+      <c r="E128" s="47">
+        <v>0</v>
+      </c>
+      <c r="F128" s="47">
+        <v>0</v>
+      </c>
+      <c r="G128" s="47">
+        <v>0</v>
+      </c>
+      <c r="H128" s="47">
+        <v>0</v>
+      </c>
+      <c r="I128" s="47">
+        <v>0</v>
+      </c>
+      <c r="J128" s="21"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
+    </row>
+    <row r="129" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="39">
         <v>33</v>
       </c>
-      <c r="D39" s="40">
-        <v>1444208240</v>
-      </c>
-      <c r="E39" s="40">
-        <v>338358145</v>
-      </c>
-      <c r="F39" s="40">
-        <v>96280553</v>
-      </c>
-      <c r="G39" s="40">
-        <v>0</v>
-      </c>
-      <c r="H39" s="40">
-        <v>434638698</v>
-      </c>
-      <c r="I39" s="40">
-        <v>1009569542</v>
-      </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-    </row>
-    <row r="40" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33">
-        <v>27</v>
-      </c>
-      <c r="B40" s="33">
-        <v>30808</v>
-      </c>
-      <c r="C40" s="33" t="s">
+      <c r="B129" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="47">
+        <v>0</v>
+      </c>
+      <c r="E129" s="47">
+        <v>200000</v>
+      </c>
+      <c r="F129" s="47">
+        <v>0</v>
+      </c>
+      <c r="G129" s="47">
+        <v>-200000</v>
+      </c>
+      <c r="H129" s="47">
+        <v>0</v>
+      </c>
+      <c r="I129" s="47">
+        <v>0</v>
+      </c>
+      <c r="J129" s="21"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="21"/>
+    </row>
+    <row r="130" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="39">
         <v>34</v>
       </c>
-      <c r="D40" s="40">
-        <v>61419000</v>
-      </c>
-      <c r="E40" s="40">
-        <v>36754200</v>
-      </c>
-      <c r="F40" s="40">
-        <v>3314950</v>
-      </c>
-      <c r="G40" s="40">
-        <v>0</v>
-      </c>
-      <c r="H40" s="40">
-        <v>40069150</v>
-      </c>
-      <c r="I40" s="40">
-        <v>21349850</v>
-      </c>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-    </row>
-    <row r="41" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33">
-        <v>28</v>
-      </c>
-      <c r="B41" s="33">
-        <v>30901</v>
-      </c>
-      <c r="C41" s="33" t="s">
+      <c r="B130" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="47">
+        <v>59670002</v>
+      </c>
+      <c r="E130" s="47">
+        <v>57521500</v>
+      </c>
+      <c r="F130" s="47">
+        <v>2680504</v>
+      </c>
+      <c r="G130" s="47">
+        <v>-3340500</v>
+      </c>
+      <c r="H130" s="47">
+        <v>56861504</v>
+      </c>
+      <c r="I130" s="47">
+        <v>2808498</v>
+      </c>
+      <c r="J130" s="21"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="21"/>
+    </row>
+    <row r="131" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="39">
         <v>35</v>
       </c>
-      <c r="D41" s="40">
-        <v>0</v>
-      </c>
-      <c r="E41" s="40">
-        <v>0</v>
-      </c>
-      <c r="F41" s="40">
-        <v>0</v>
-      </c>
-      <c r="G41" s="40">
-        <v>0</v>
-      </c>
-      <c r="H41" s="40">
-        <v>0</v>
-      </c>
-      <c r="I41" s="40">
-        <v>0</v>
-      </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-    </row>
-    <row r="42" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="33">
-        <v>29</v>
-      </c>
-      <c r="B42" s="33">
-        <v>30902</v>
-      </c>
-      <c r="C42" s="33" t="s">
+      <c r="B131" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" s="47">
+        <v>0</v>
+      </c>
+      <c r="E131" s="47">
+        <v>0</v>
+      </c>
+      <c r="F131" s="47">
+        <v>0</v>
+      </c>
+      <c r="G131" s="47">
+        <v>0</v>
+      </c>
+      <c r="H131" s="47">
+        <v>0</v>
+      </c>
+      <c r="I131" s="47">
+        <v>0</v>
+      </c>
+      <c r="J131" s="21"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="21"/>
+    </row>
+    <row r="132" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="39">
         <v>36</v>
       </c>
-      <c r="D42" s="40">
-        <v>6544919059</v>
-      </c>
-      <c r="E42" s="40">
-        <v>3244730539</v>
-      </c>
-      <c r="F42" s="40">
-        <v>2111579017</v>
-      </c>
-      <c r="G42" s="40">
-        <v>-763333</v>
-      </c>
-      <c r="H42" s="40">
-        <v>5355546223</v>
-      </c>
-      <c r="I42" s="40">
-        <v>1189372836</v>
-      </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-    </row>
-    <row r="43" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="33">
-        <v>30</v>
-      </c>
-      <c r="B43" s="33">
-        <v>30904</v>
-      </c>
-      <c r="C43" s="33" t="s">
+      <c r="B132" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="47">
+        <v>43443650</v>
+      </c>
+      <c r="E132" s="47">
+        <v>20913400</v>
+      </c>
+      <c r="F132" s="47">
+        <v>0</v>
+      </c>
+      <c r="G132" s="47">
+        <v>22530250</v>
+      </c>
+      <c r="H132" s="47">
+        <v>43443650</v>
+      </c>
+      <c r="I132" s="47">
+        <v>0</v>
+      </c>
+      <c r="J132" s="21"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="21"/>
+    </row>
+    <row r="133" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="39">
         <v>37</v>
       </c>
-      <c r="D43" s="40">
-        <v>1257888847</v>
-      </c>
-      <c r="E43" s="40">
-        <v>540387527</v>
-      </c>
-      <c r="F43" s="40">
-        <v>201701965</v>
-      </c>
-      <c r="G43" s="40">
-        <v>-23560250</v>
-      </c>
-      <c r="H43" s="40">
-        <v>718529242</v>
-      </c>
-      <c r="I43" s="40">
-        <v>539359605</v>
-      </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-    </row>
-    <row r="44" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33">
-        <v>31</v>
-      </c>
-      <c r="B44" s="33">
-        <v>31001</v>
-      </c>
-      <c r="C44" s="33" t="s">
+      <c r="B133" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" s="47">
+        <v>500000</v>
+      </c>
+      <c r="E133" s="47">
+        <v>0</v>
+      </c>
+      <c r="F133" s="47">
+        <v>0</v>
+      </c>
+      <c r="G133" s="47">
+        <v>500000</v>
+      </c>
+      <c r="H133" s="47">
+        <v>500000</v>
+      </c>
+      <c r="I133" s="47">
+        <v>0</v>
+      </c>
+      <c r="J133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="21"/>
+    </row>
+    <row r="134" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="39">
         <v>38</v>
       </c>
-      <c r="D44" s="40">
-        <v>591808461674</v>
-      </c>
-      <c r="E44" s="40">
-        <v>410356826186</v>
-      </c>
-      <c r="F44" s="40">
-        <v>68034298249</v>
-      </c>
-      <c r="G44" s="40">
-        <v>-10112227842</v>
-      </c>
-      <c r="H44" s="40">
-        <v>468278896593</v>
-      </c>
-      <c r="I44" s="40">
-        <v>123529565081</v>
-      </c>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-    </row>
-    <row r="45" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="33">
-        <v>32</v>
-      </c>
-      <c r="B45" s="33">
-        <v>31002</v>
-      </c>
-      <c r="C45" s="33" t="s">
+      <c r="B134" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" s="47">
+        <v>23948875</v>
+      </c>
+      <c r="E134" s="47">
+        <v>25939888</v>
+      </c>
+      <c r="F134" s="47">
+        <v>0</v>
+      </c>
+      <c r="G134" s="47">
+        <v>-1991013</v>
+      </c>
+      <c r="H134" s="47">
+        <v>23948875</v>
+      </c>
+      <c r="I134" s="47">
+        <v>0</v>
+      </c>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
+    </row>
+    <row r="135" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="39">
         <v>39</v>
       </c>
-      <c r="D45" s="40">
-        <v>363701849607</v>
-      </c>
-      <c r="E45" s="40">
-        <v>195580699698</v>
-      </c>
-      <c r="F45" s="40">
-        <v>52340434809</v>
-      </c>
-      <c r="G45" s="40">
-        <v>-1742286178</v>
-      </c>
-      <c r="H45" s="40">
-        <v>246178848329</v>
-      </c>
-      <c r="I45" s="40">
-        <v>117523001278</v>
-      </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-    </row>
-    <row r="46" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="33">
-        <v>33</v>
-      </c>
-      <c r="B46" s="33">
-        <v>31101</v>
-      </c>
-      <c r="C46" s="33" t="s">
+      <c r="B135" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" s="47">
+        <v>13080526371</v>
+      </c>
+      <c r="E135" s="47">
+        <v>4855160324</v>
+      </c>
+      <c r="F135" s="47">
+        <v>312256114</v>
+      </c>
+      <c r="G135" s="47">
+        <v>379536277</v>
+      </c>
+      <c r="H135" s="47">
+        <v>5546952715</v>
+      </c>
+      <c r="I135" s="47">
+        <v>7533573656</v>
+      </c>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="21"/>
+    </row>
+    <row r="136" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="39">
         <v>40</v>
       </c>
-      <c r="D46" s="40">
-        <v>4576920</v>
-      </c>
-      <c r="E46" s="40">
-        <v>4576920</v>
-      </c>
-      <c r="F46" s="40">
-        <v>0</v>
-      </c>
-      <c r="G46" s="40">
-        <v>0</v>
-      </c>
-      <c r="H46" s="40">
-        <v>4576920</v>
-      </c>
-      <c r="I46" s="40">
-        <v>0</v>
-      </c>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-    </row>
-    <row r="47" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="33">
-        <v>34</v>
-      </c>
-      <c r="B47" s="33">
-        <v>31102</v>
-      </c>
-      <c r="C47" s="33" t="s">
+      <c r="B136" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="47">
+        <v>7040235910</v>
+      </c>
+      <c r="E136" s="47">
+        <v>2600344092</v>
+      </c>
+      <c r="F136" s="47">
+        <v>346651751</v>
+      </c>
+      <c r="G136" s="47">
+        <v>-23653219</v>
+      </c>
+      <c r="H136" s="47">
+        <v>2923342624</v>
+      </c>
+      <c r="I136" s="47">
+        <v>4116893286</v>
+      </c>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="21"/>
+    </row>
+    <row r="137" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="39">
         <v>41</v>
       </c>
-      <c r="D47" s="40">
-        <v>74510200</v>
-      </c>
-      <c r="E47" s="40">
-        <v>66810200</v>
-      </c>
-      <c r="F47" s="40">
-        <v>385000</v>
-      </c>
-      <c r="G47" s="40">
-        <v>0</v>
-      </c>
-      <c r="H47" s="40">
-        <v>67195200</v>
-      </c>
-      <c r="I47" s="40">
-        <v>7315000</v>
-      </c>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-    </row>
-    <row r="48" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33">
-        <v>35</v>
-      </c>
-      <c r="B48" s="33">
-        <v>31202</v>
-      </c>
-      <c r="C48" s="33" t="s">
+      <c r="B137" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" s="47">
+        <v>331657000</v>
+      </c>
+      <c r="E137" s="47">
+        <v>50423880</v>
+      </c>
+      <c r="F137" s="47">
+        <v>12508971</v>
+      </c>
+      <c r="G137" s="47">
+        <v>13104834</v>
+      </c>
+      <c r="H137" s="47">
+        <v>76037685</v>
+      </c>
+      <c r="I137" s="47">
+        <v>255619315</v>
+      </c>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
+    </row>
+    <row r="138" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="39">
         <v>42</v>
       </c>
-      <c r="D48" s="40">
-        <v>5050000</v>
-      </c>
-      <c r="E48" s="40">
-        <v>4875000</v>
-      </c>
-      <c r="F48" s="40">
-        <v>175000</v>
-      </c>
-      <c r="G48" s="40">
-        <v>0</v>
-      </c>
-      <c r="H48" s="40">
-        <v>5050000</v>
-      </c>
-      <c r="I48" s="40">
-        <v>0</v>
-      </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-    </row>
-    <row r="49" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33">
-        <v>36</v>
-      </c>
-      <c r="B49" s="33">
-        <v>31301</v>
-      </c>
-      <c r="C49" s="33" t="s">
+      <c r="B138" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" s="47">
+        <v>720776500</v>
+      </c>
+      <c r="E138" s="47">
+        <v>1370119500</v>
+      </c>
+      <c r="F138" s="47">
+        <v>3870000</v>
+      </c>
+      <c r="G138" s="47">
+        <v>-655148000</v>
+      </c>
+      <c r="H138" s="47">
+        <v>718841500</v>
+      </c>
+      <c r="I138" s="47">
+        <v>1935000</v>
+      </c>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="21"/>
+    </row>
+    <row r="139" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="39">
         <v>43</v>
       </c>
-      <c r="D49" s="40">
-        <v>357559447</v>
-      </c>
-      <c r="E49" s="40">
-        <v>172137660</v>
-      </c>
-      <c r="F49" s="40">
-        <v>35264629</v>
-      </c>
-      <c r="G49" s="40">
-        <v>0</v>
-      </c>
-      <c r="H49" s="40">
-        <v>207402289</v>
-      </c>
-      <c r="I49" s="40">
-        <v>150157158</v>
-      </c>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-    </row>
-    <row r="50" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33">
-        <v>37</v>
-      </c>
-      <c r="B50" s="33">
-        <v>31303</v>
-      </c>
-      <c r="C50" s="33" t="s">
+      <c r="B139" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" s="47">
+        <v>0</v>
+      </c>
+      <c r="E139" s="47">
+        <v>0</v>
+      </c>
+      <c r="F139" s="47">
+        <v>0</v>
+      </c>
+      <c r="G139" s="47">
+        <v>0</v>
+      </c>
+      <c r="H139" s="47">
+        <v>0</v>
+      </c>
+      <c r="I139" s="47">
+        <v>0</v>
+      </c>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="21"/>
+    </row>
+    <row r="140" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="39">
         <v>44</v>
       </c>
-      <c r="D50" s="40">
-        <v>486000</v>
-      </c>
-      <c r="E50" s="40">
-        <v>486000</v>
-      </c>
-      <c r="F50" s="40">
-        <v>0</v>
-      </c>
-      <c r="G50" s="40">
-        <v>0</v>
-      </c>
-      <c r="H50" s="40">
-        <v>486000</v>
-      </c>
-      <c r="I50" s="40">
-        <v>0</v>
-      </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-    </row>
-    <row r="51" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33">
-        <v>38</v>
-      </c>
-      <c r="B51" s="33">
-        <v>31401</v>
-      </c>
-      <c r="C51" s="33" t="s">
+      <c r="B140" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" s="47">
+        <v>22145001</v>
+      </c>
+      <c r="E140" s="47">
+        <v>8897065</v>
+      </c>
+      <c r="F140" s="47">
+        <v>567634</v>
+      </c>
+      <c r="G140" s="47">
+        <v>0</v>
+      </c>
+      <c r="H140" s="47">
+        <v>9464699</v>
+      </c>
+      <c r="I140" s="47">
+        <v>12680302</v>
+      </c>
+      <c r="J140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="21"/>
+    </row>
+    <row r="141" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="39">
         <v>45</v>
       </c>
-      <c r="D51" s="40">
-        <v>0</v>
-      </c>
-      <c r="E51" s="40">
-        <v>0</v>
-      </c>
-      <c r="F51" s="40">
-        <v>0</v>
-      </c>
-      <c r="G51" s="40">
-        <v>0</v>
-      </c>
-      <c r="H51" s="40">
-        <v>0</v>
-      </c>
-      <c r="I51" s="40">
-        <v>0</v>
-      </c>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-    </row>
-    <row r="52" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="33">
-        <v>39</v>
-      </c>
-      <c r="B52" s="33">
-        <v>31501</v>
-      </c>
-      <c r="C52" s="33" t="s">
+      <c r="B141" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D141" s="47">
+        <v>0</v>
+      </c>
+      <c r="E141" s="47">
+        <v>0</v>
+      </c>
+      <c r="F141" s="47">
+        <v>0</v>
+      </c>
+      <c r="G141" s="47">
+        <v>0</v>
+      </c>
+      <c r="H141" s="47">
+        <v>0</v>
+      </c>
+      <c r="I141" s="47">
+        <v>0</v>
+      </c>
+      <c r="J141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="21"/>
+    </row>
+    <row r="142" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="39">
         <v>46</v>
       </c>
-      <c r="D52" s="40">
-        <v>1500000</v>
-      </c>
-      <c r="E52" s="40">
-        <v>1500000</v>
-      </c>
-      <c r="F52" s="40">
-        <v>0</v>
-      </c>
-      <c r="G52" s="40">
-        <v>0</v>
-      </c>
-      <c r="H52" s="40">
-        <v>1500000</v>
-      </c>
-      <c r="I52" s="40">
-        <v>0</v>
-      </c>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-    </row>
-    <row r="53" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33">
-        <v>40</v>
-      </c>
-      <c r="B53" s="33">
-        <v>31502</v>
-      </c>
-      <c r="C53" s="33" t="s">
+      <c r="B142" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D142" s="47">
+        <v>5000000</v>
+      </c>
+      <c r="E142" s="47">
+        <v>1812500</v>
+      </c>
+      <c r="F142" s="47">
+        <v>125000</v>
+      </c>
+      <c r="G142" s="47">
+        <v>0</v>
+      </c>
+      <c r="H142" s="47">
+        <v>1937500</v>
+      </c>
+      <c r="I142" s="47">
+        <v>3062500</v>
+      </c>
+      <c r="J142" s="21"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="21"/>
+    </row>
+    <row r="143" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="39">
         <v>47</v>
       </c>
-      <c r="D53" s="40">
-        <v>0</v>
-      </c>
-      <c r="E53" s="40">
-        <v>0</v>
-      </c>
-      <c r="F53" s="40">
-        <v>0</v>
-      </c>
-      <c r="G53" s="40">
-        <v>0</v>
-      </c>
-      <c r="H53" s="40">
-        <v>0</v>
-      </c>
-      <c r="I53" s="40">
-        <v>0</v>
-      </c>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-    </row>
-    <row r="54" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="33">
-        <v>41</v>
-      </c>
-      <c r="B54" s="33">
-        <v>31503</v>
-      </c>
-      <c r="C54" s="33" t="s">
+      <c r="B143" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D143" s="47">
+        <v>57632000</v>
+      </c>
+      <c r="E143" s="47">
+        <v>16230500</v>
+      </c>
+      <c r="F143" s="47">
+        <v>1440800</v>
+      </c>
+      <c r="G143" s="47">
+        <v>2403750</v>
+      </c>
+      <c r="H143" s="47">
+        <v>20075050</v>
+      </c>
+      <c r="I143" s="47">
+        <v>37556950</v>
+      </c>
+      <c r="J143" s="21"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="21"/>
+    </row>
+    <row r="144" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="39">
         <v>48</v>
       </c>
-      <c r="D54" s="40">
-        <v>953016700</v>
-      </c>
-      <c r="E54" s="40">
-        <v>99966700</v>
-      </c>
-      <c r="F54" s="40">
-        <v>213262500</v>
-      </c>
-      <c r="G54" s="40">
-        <v>213262500</v>
-      </c>
-      <c r="H54" s="40">
-        <v>526491700</v>
-      </c>
-      <c r="I54" s="40">
-        <v>426525000</v>
-      </c>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-    </row>
-    <row r="55" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="33">
-        <v>42</v>
-      </c>
-      <c r="B55" s="33">
-        <v>31504</v>
-      </c>
-      <c r="C55" s="33" t="s">
+      <c r="B144" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D144" s="47">
+        <v>44828600</v>
+      </c>
+      <c r="E144" s="47">
+        <v>275578600</v>
+      </c>
+      <c r="F144" s="47">
+        <v>0</v>
+      </c>
+      <c r="G144" s="47">
+        <v>-230750000</v>
+      </c>
+      <c r="H144" s="47">
+        <v>44828600</v>
+      </c>
+      <c r="I144" s="47">
+        <v>0</v>
+      </c>
+      <c r="J144" s="21"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="21"/>
+    </row>
+    <row r="145" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="39">
         <v>49</v>
       </c>
-      <c r="D55" s="40">
-        <v>19182949099</v>
-      </c>
-      <c r="E55" s="40">
-        <v>3289617060</v>
-      </c>
-      <c r="F55" s="40">
-        <v>1372826890</v>
-      </c>
-      <c r="G55" s="40">
-        <v>-2318700</v>
-      </c>
-      <c r="H55" s="40">
-        <v>4660125250</v>
-      </c>
-      <c r="I55" s="40">
-        <v>14522823849</v>
-      </c>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-    </row>
-    <row r="56" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="33">
-        <v>43</v>
-      </c>
-      <c r="B56" s="33">
-        <v>31601</v>
-      </c>
-      <c r="C56" s="33" t="s">
+      <c r="B145" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145" s="47">
+        <v>144010</v>
+      </c>
+      <c r="E145" s="47">
+        <v>144010</v>
+      </c>
+      <c r="F145" s="47">
+        <v>0</v>
+      </c>
+      <c r="G145" s="47">
+        <v>0</v>
+      </c>
+      <c r="H145" s="47">
+        <v>144010</v>
+      </c>
+      <c r="I145" s="47">
+        <v>0</v>
+      </c>
+      <c r="J145" s="21"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="21"/>
+    </row>
+    <row r="146" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="39">
         <v>50</v>
       </c>
-      <c r="D56" s="40">
-        <v>207534790</v>
-      </c>
-      <c r="E56" s="40">
-        <v>27381741</v>
-      </c>
-      <c r="F56" s="40">
-        <v>18963482</v>
-      </c>
-      <c r="G56" s="40">
-        <v>0</v>
-      </c>
-      <c r="H56" s="40">
-        <v>46345223</v>
-      </c>
-      <c r="I56" s="40">
-        <v>161189567</v>
-      </c>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-    </row>
-    <row r="57" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="33">
-        <v>44</v>
-      </c>
-      <c r="B57" s="33">
-        <v>31701</v>
-      </c>
-      <c r="C57" s="33" t="s">
+      <c r="B146" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="47">
+        <v>64205595</v>
+      </c>
+      <c r="E146" s="47">
+        <v>59477675</v>
+      </c>
+      <c r="F146" s="47">
+        <v>1605140</v>
+      </c>
+      <c r="G146" s="47">
+        <v>-40216000</v>
+      </c>
+      <c r="H146" s="47">
+        <v>20866815</v>
+      </c>
+      <c r="I146" s="47">
+        <v>43338780</v>
+      </c>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
+    </row>
+    <row r="147" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="39">
         <v>51</v>
       </c>
-      <c r="D57" s="40">
-        <v>471206084</v>
-      </c>
-      <c r="E57" s="40">
-        <v>306952324</v>
-      </c>
-      <c r="F57" s="40">
-        <v>33408782</v>
-      </c>
-      <c r="G57" s="40">
-        <v>2061000</v>
-      </c>
-      <c r="H57" s="40">
-        <v>342422106</v>
-      </c>
-      <c r="I57" s="40">
-        <v>128783978</v>
-      </c>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-    </row>
-    <row r="58" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="33">
-        <v>45</v>
-      </c>
-      <c r="B58" s="33">
-        <v>31801</v>
-      </c>
-      <c r="C58" s="33" t="s">
+      <c r="B147" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" s="47">
+        <v>146547290</v>
+      </c>
+      <c r="E147" s="47">
+        <v>26742472</v>
+      </c>
+      <c r="F147" s="47">
+        <v>4862437</v>
+      </c>
+      <c r="G147" s="47">
+        <v>59158370</v>
+      </c>
+      <c r="H147" s="47">
+        <v>90763279</v>
+      </c>
+      <c r="I147" s="47">
+        <v>55784011</v>
+      </c>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
+    </row>
+    <row r="148" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="39">
         <v>52</v>
       </c>
-      <c r="D58" s="40">
-        <v>117110918</v>
-      </c>
-      <c r="E58" s="40">
-        <v>107825202</v>
-      </c>
-      <c r="F58" s="40">
-        <v>1428572</v>
-      </c>
-      <c r="G58" s="40">
-        <v>0</v>
-      </c>
-      <c r="H58" s="40">
-        <v>109253774</v>
-      </c>
-      <c r="I58" s="40">
-        <v>7857144</v>
-      </c>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-    </row>
-    <row r="59" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="33">
-        <v>46</v>
-      </c>
-      <c r="B59" s="33">
-        <v>31901</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="40">
-        <v>413765187</v>
-      </c>
-      <c r="E59" s="40">
-        <v>152736204</v>
-      </c>
-      <c r="F59" s="40">
-        <v>75842670</v>
-      </c>
-      <c r="G59" s="40">
-        <v>-6274684</v>
-      </c>
-      <c r="H59" s="40">
-        <v>222304190</v>
-      </c>
-      <c r="I59" s="40">
-        <v>191460997</v>
-      </c>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-    </row>
-    <row r="60" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="32">
-        <v>133111</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="41">
-        <v>8510357930905</v>
-      </c>
-      <c r="E60" s="41">
-        <v>829112599497</v>
-      </c>
-      <c r="F60" s="41">
-        <v>290833919974</v>
-      </c>
-      <c r="G60" s="41">
-        <v>-382514689</v>
-      </c>
-      <c r="H60" s="41">
-        <v>1119564004782</v>
-      </c>
-      <c r="I60" s="41">
-        <v>7390793926123</v>
-      </c>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-    </row>
-    <row r="61" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="33">
-        <v>1</v>
-      </c>
-      <c r="B61" s="33">
-        <v>31801</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="40">
-        <v>5499843700</v>
-      </c>
-      <c r="E61" s="40">
-        <v>5167135857</v>
-      </c>
-      <c r="F61" s="40">
-        <v>221805229</v>
-      </c>
-      <c r="G61" s="40">
-        <v>0</v>
-      </c>
-      <c r="H61" s="40">
-        <v>5388941086</v>
-      </c>
-      <c r="I61" s="40">
-        <v>110902614</v>
-      </c>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-    </row>
-    <row r="62" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="33">
-        <v>2</v>
-      </c>
-      <c r="B62" s="33">
-        <v>40101</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="40">
-        <v>7345386221844</v>
-      </c>
-      <c r="E62" s="40">
-        <v>703342951535</v>
-      </c>
-      <c r="F62" s="40">
-        <v>238116892737</v>
-      </c>
-      <c r="G62" s="40">
-        <v>-3429241016</v>
-      </c>
-      <c r="H62" s="40">
-        <v>938030603256</v>
-      </c>
-      <c r="I62" s="40">
-        <v>6407355618588</v>
-      </c>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-    </row>
-    <row r="63" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="33">
-        <v>3</v>
-      </c>
-      <c r="B63" s="33">
-        <v>40102</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="40">
-        <v>960958688813</v>
-      </c>
-      <c r="E63" s="40">
-        <v>109291486892</v>
-      </c>
-      <c r="F63" s="40">
-        <v>47743673927</v>
-      </c>
-      <c r="G63" s="40">
-        <v>2280903181</v>
-      </c>
-      <c r="H63" s="40">
-        <v>159316064000</v>
-      </c>
-      <c r="I63" s="40">
-        <v>801642624813</v>
-      </c>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-    </row>
-    <row r="64" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="33">
-        <v>4</v>
-      </c>
-      <c r="B64" s="33">
-        <v>40201</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="40">
-        <v>11007000</v>
-      </c>
-      <c r="E64" s="40">
-        <v>562010</v>
-      </c>
-      <c r="F64" s="40">
-        <v>253034</v>
-      </c>
-      <c r="G64" s="40">
-        <v>70575</v>
-      </c>
-      <c r="H64" s="40">
-        <v>885619</v>
-      </c>
-      <c r="I64" s="40">
-        <v>10121381</v>
-      </c>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-    </row>
-    <row r="65" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="33">
-        <v>5</v>
-      </c>
-      <c r="B65" s="33">
-        <v>40301</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="40">
-        <v>2156185500</v>
-      </c>
-      <c r="E65" s="40">
-        <v>38725218</v>
-      </c>
-      <c r="F65" s="40">
-        <v>67176452</v>
-      </c>
-      <c r="G65" s="40">
-        <v>101748968</v>
-      </c>
-      <c r="H65" s="40">
-        <v>207650638</v>
-      </c>
-      <c r="I65" s="40">
-        <v>1948534862</v>
-      </c>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-    </row>
-    <row r="66" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="33">
-        <v>6</v>
-      </c>
-      <c r="B66" s="33">
-        <v>40401</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="40">
-        <v>196345984048</v>
-      </c>
-      <c r="E66" s="40">
-        <v>11271737985</v>
-      </c>
-      <c r="F66" s="40">
-        <v>4684118595</v>
-      </c>
-      <c r="G66" s="40">
-        <v>664003603</v>
-      </c>
-      <c r="H66" s="40">
-        <v>16619860183</v>
-      </c>
-      <c r="I66" s="40">
-        <v>179726123865</v>
-      </c>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-    </row>
-    <row r="67" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B67" s="32">
-        <v>134111</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="41">
-        <v>33846747043</v>
-      </c>
-      <c r="E67" s="41">
-        <v>8457455838</v>
-      </c>
-      <c r="F67" s="41">
-        <v>4364139496</v>
-      </c>
-      <c r="G67" s="41">
-        <v>-2554632186</v>
-      </c>
-      <c r="H67" s="41">
-        <v>10266963148</v>
-      </c>
-      <c r="I67" s="41">
-        <v>23579783895</v>
-      </c>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-    </row>
-    <row r="68" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="33">
-        <v>1</v>
-      </c>
-      <c r="B68" s="33">
-        <v>50101</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="40">
-        <v>32810419043</v>
-      </c>
-      <c r="E68" s="40">
-        <v>8394279730</v>
-      </c>
-      <c r="F68" s="40">
-        <v>4336475773</v>
-      </c>
-      <c r="G68" s="40">
-        <v>-2553600721</v>
-      </c>
-      <c r="H68" s="40">
-        <v>10177154782</v>
-      </c>
-      <c r="I68" s="40">
-        <v>22633264261</v>
-      </c>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-    </row>
-    <row r="69" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="33">
-        <v>2</v>
-      </c>
-      <c r="B69" s="33">
-        <v>50102</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="40">
-        <v>1036328000</v>
-      </c>
-      <c r="E69" s="40">
-        <v>63176108</v>
-      </c>
-      <c r="F69" s="40">
-        <v>27663723</v>
-      </c>
-      <c r="G69" s="40">
-        <v>-1031465</v>
-      </c>
-      <c r="H69" s="40">
-        <v>89808366</v>
-      </c>
-      <c r="I69" s="40">
-        <v>946519634</v>
-      </c>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-    </row>
-    <row r="70" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="32">
-        <v>134112</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="41">
-        <v>15494242738</v>
-      </c>
-      <c r="E70" s="41">
-        <v>1761911404</v>
-      </c>
-      <c r="F70" s="41">
-        <v>833895277</v>
-      </c>
-      <c r="G70" s="41">
-        <v>-161101915</v>
-      </c>
-      <c r="H70" s="41">
-        <v>2434704766</v>
-      </c>
-      <c r="I70" s="41">
-        <v>13059537972</v>
-      </c>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-    </row>
-    <row r="71" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="33">
-        <v>1</v>
-      </c>
-      <c r="B71" s="33">
-        <v>50201</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="40">
-        <v>2095568000</v>
-      </c>
-      <c r="E71" s="40">
-        <v>92455196</v>
-      </c>
-      <c r="F71" s="40">
-        <v>49326825</v>
-      </c>
-      <c r="G71" s="40">
-        <v>21295596</v>
-      </c>
-      <c r="H71" s="40">
-        <v>163077617</v>
-      </c>
-      <c r="I71" s="40">
-        <v>1932490383</v>
-      </c>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-    </row>
-    <row r="72" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="33">
-        <v>2</v>
-      </c>
-      <c r="B72" s="33">
-        <v>50202</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="40">
-        <v>236461000</v>
-      </c>
-      <c r="E72" s="40">
-        <v>3834712</v>
-      </c>
-      <c r="F72" s="40">
-        <v>5946325</v>
-      </c>
-      <c r="G72" s="40">
-        <v>9639101</v>
-      </c>
-      <c r="H72" s="40">
-        <v>19420138</v>
-      </c>
-      <c r="I72" s="40">
-        <v>217040862</v>
-      </c>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-    </row>
-    <row r="73" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="33">
-        <v>3</v>
-      </c>
-      <c r="B73" s="33">
-        <v>50203</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="40">
-        <v>54719000</v>
-      </c>
-      <c r="E73" s="40">
-        <v>5861827</v>
-      </c>
-      <c r="F73" s="40">
-        <v>3330722</v>
-      </c>
-      <c r="G73" s="40">
-        <v>854339</v>
-      </c>
-      <c r="H73" s="40">
-        <v>10046888</v>
-      </c>
-      <c r="I73" s="40">
-        <v>44672112</v>
-      </c>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-    </row>
-    <row r="74" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="33">
-        <v>4</v>
-      </c>
-      <c r="B74" s="33">
-        <v>50204</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" s="40">
-        <v>4077740681</v>
-      </c>
-      <c r="E74" s="40">
-        <v>785025256</v>
-      </c>
-      <c r="F74" s="40">
-        <v>490252095</v>
-      </c>
-      <c r="G74" s="40">
-        <v>-95426929</v>
-      </c>
-      <c r="H74" s="40">
-        <v>1179850422</v>
-      </c>
-      <c r="I74" s="40">
-        <v>2897890259</v>
-      </c>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-    </row>
-    <row r="75" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="33">
-        <v>5</v>
-      </c>
-      <c r="B75" s="33">
-        <v>50205</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="40">
-        <v>1633988000</v>
-      </c>
-      <c r="E75" s="40">
-        <v>367392030</v>
-      </c>
-      <c r="F75" s="40">
-        <v>73944999</v>
-      </c>
-      <c r="G75" s="40">
-        <v>-154312991</v>
-      </c>
-      <c r="H75" s="40">
-        <v>287024038</v>
-      </c>
-      <c r="I75" s="40">
-        <v>1346963962</v>
-      </c>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-    </row>
-    <row r="76" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="33">
-        <v>6</v>
-      </c>
-      <c r="B76" s="33">
-        <v>50206</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="40">
-        <v>5519822057</v>
-      </c>
-      <c r="E76" s="40">
-        <v>339644716</v>
-      </c>
-      <c r="F76" s="40">
-        <v>156948408</v>
-      </c>
-      <c r="G76" s="40">
-        <v>98425020</v>
-      </c>
-      <c r="H76" s="40">
-        <v>595018144</v>
-      </c>
-      <c r="I76" s="40">
-        <v>4924803913</v>
-      </c>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-    </row>
-    <row r="77" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="33">
-        <v>7</v>
-      </c>
-      <c r="B77" s="33">
-        <v>50207</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D77" s="40">
-        <v>1875944000</v>
-      </c>
-      <c r="E77" s="40">
-        <v>167697667</v>
-      </c>
-      <c r="F77" s="40">
-        <v>54145903</v>
-      </c>
-      <c r="G77" s="40">
-        <v>-41576051</v>
-      </c>
-      <c r="H77" s="40">
-        <v>180267519</v>
-      </c>
-      <c r="I77" s="40">
-        <v>1695676481</v>
-      </c>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-    </row>
-    <row r="78" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" s="32">
-        <v>134113</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D78" s="41">
-        <v>167363443477</v>
-      </c>
-      <c r="E78" s="41">
-        <v>65197748107</v>
-      </c>
-      <c r="F78" s="41">
-        <v>4439749059</v>
-      </c>
-      <c r="G78" s="41">
-        <v>22018686</v>
-      </c>
-      <c r="H78" s="41">
-        <v>69659515852</v>
-      </c>
-      <c r="I78" s="41">
-        <v>97703927625</v>
-      </c>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-    </row>
-    <row r="79" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="33">
-        <v>1</v>
-      </c>
-      <c r="B79" s="33">
-        <v>50301</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="40">
-        <v>9659660453</v>
-      </c>
-      <c r="E79" s="40">
-        <v>2545704244</v>
-      </c>
-      <c r="F79" s="40">
-        <v>322183140</v>
-      </c>
-      <c r="G79" s="40">
-        <v>68565749</v>
-      </c>
-      <c r="H79" s="40">
-        <v>2936453133</v>
-      </c>
-      <c r="I79" s="40">
-        <v>6723207320</v>
-      </c>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-    </row>
-    <row r="80" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="33">
-        <v>2</v>
-      </c>
-      <c r="B80" s="33">
-        <v>50302</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="40">
-        <v>2813828448</v>
-      </c>
-      <c r="E80" s="40">
-        <v>688201614</v>
-      </c>
-      <c r="F80" s="40">
-        <v>93794284</v>
-      </c>
-      <c r="G80" s="40">
-        <v>0</v>
-      </c>
-      <c r="H80" s="40">
-        <v>781995898</v>
-      </c>
-      <c r="I80" s="40">
-        <v>2031832550</v>
-      </c>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-    </row>
-    <row r="81" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="33">
-        <v>3</v>
-      </c>
-      <c r="B81" s="33">
-        <v>50303</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D81" s="40">
-        <v>539718149</v>
-      </c>
-      <c r="E81" s="40">
-        <v>511742242</v>
-      </c>
-      <c r="F81" s="40">
-        <v>27480907</v>
-      </c>
-      <c r="G81" s="40">
-        <v>0</v>
-      </c>
-      <c r="H81" s="40">
-        <v>539223149</v>
-      </c>
-      <c r="I81" s="40">
-        <v>495000</v>
-      </c>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-    </row>
-    <row r="82" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="33">
-        <v>4</v>
-      </c>
-      <c r="B82" s="33">
-        <v>50305</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" s="40">
-        <v>377496350</v>
-      </c>
-      <c r="E82" s="40">
-        <v>92624931</v>
-      </c>
-      <c r="F82" s="40">
-        <v>9473466</v>
-      </c>
-      <c r="G82" s="40">
-        <v>0</v>
-      </c>
-      <c r="H82" s="40">
-        <v>102098397</v>
-      </c>
-      <c r="I82" s="40">
-        <v>275397953</v>
-      </c>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-    </row>
-    <row r="83" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="33">
-        <v>5</v>
-      </c>
-      <c r="B83" s="33">
-        <v>50306</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="40">
-        <v>60544477872</v>
-      </c>
-      <c r="E83" s="40">
-        <v>11748186454</v>
-      </c>
-      <c r="F83" s="40">
-        <v>1517303043</v>
-      </c>
-      <c r="G83" s="40">
-        <v>0</v>
-      </c>
-      <c r="H83" s="40">
-        <v>13265489497</v>
-      </c>
-      <c r="I83" s="40">
-        <v>47278988375</v>
-      </c>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-    </row>
-    <row r="84" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="33">
-        <v>6</v>
-      </c>
-      <c r="B84" s="33">
-        <v>50307</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D84" s="40">
-        <v>67546000</v>
-      </c>
-      <c r="E84" s="40">
-        <v>20551457</v>
-      </c>
-      <c r="F84" s="40">
-        <v>2331199</v>
-      </c>
-      <c r="G84" s="40">
-        <v>231667</v>
-      </c>
-      <c r="H84" s="40">
-        <v>23114323</v>
-      </c>
-      <c r="I84" s="40">
-        <v>44431677</v>
-      </c>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-    </row>
-    <row r="85" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="33">
-        <v>7</v>
-      </c>
-      <c r="B85" s="33">
-        <v>50309</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="40">
-        <v>401902915</v>
-      </c>
-      <c r="E85" s="40">
-        <v>157276544</v>
-      </c>
-      <c r="F85" s="40">
-        <v>20020146</v>
-      </c>
-      <c r="G85" s="40">
-        <v>0</v>
-      </c>
-      <c r="H85" s="40">
-        <v>177296690</v>
-      </c>
-      <c r="I85" s="40">
-        <v>224606225</v>
-      </c>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-    </row>
-    <row r="86" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="33">
-        <v>8</v>
-      </c>
-      <c r="B86" s="33">
-        <v>50310</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="40">
-        <v>39181617169</v>
-      </c>
-      <c r="E86" s="40">
-        <v>36816938907</v>
-      </c>
-      <c r="F86" s="40">
-        <v>839294332</v>
-      </c>
-      <c r="G86" s="40">
-        <v>3734500</v>
-      </c>
-      <c r="H86" s="40">
-        <v>37659967739</v>
-      </c>
-      <c r="I86" s="40">
-        <v>1521649430</v>
-      </c>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-    </row>
-    <row r="87" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="33">
-        <v>9</v>
-      </c>
-      <c r="B87" s="33">
-        <v>50401</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="40">
-        <v>1195041349</v>
-      </c>
-      <c r="E87" s="40">
-        <v>365428031</v>
-      </c>
-      <c r="F87" s="40">
-        <v>41112001</v>
-      </c>
-      <c r="G87" s="40">
-        <v>0</v>
-      </c>
-      <c r="H87" s="40">
-        <v>406540032</v>
-      </c>
-      <c r="I87" s="40">
-        <v>788501317</v>
-      </c>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-    </row>
-    <row r="88" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="33">
-        <v>10</v>
-      </c>
-      <c r="B88" s="33">
-        <v>50402</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="40">
-        <v>40929681775</v>
-      </c>
-      <c r="E88" s="40">
-        <v>7990545117</v>
-      </c>
-      <c r="F88" s="40">
-        <v>1041962542</v>
-      </c>
-      <c r="G88" s="40">
-        <v>-38363230</v>
-      </c>
-      <c r="H88" s="40">
-        <v>8994144429</v>
-      </c>
-      <c r="I88" s="40">
-        <v>31935537346</v>
-      </c>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-    </row>
-    <row r="89" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="33">
-        <v>11</v>
-      </c>
-      <c r="B89" s="33">
-        <v>50403</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" s="40">
-        <v>8107181997</v>
-      </c>
-      <c r="E89" s="40">
-        <v>2546991254</v>
-      </c>
-      <c r="F89" s="40">
-        <v>406617632</v>
-      </c>
-      <c r="G89" s="40">
-        <v>-12150000</v>
-      </c>
-      <c r="H89" s="40">
-        <v>2941458886</v>
-      </c>
-      <c r="I89" s="40">
-        <v>5165723111</v>
-      </c>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-    </row>
-    <row r="90" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="33">
-        <v>12</v>
-      </c>
-      <c r="B90" s="33">
-        <v>50404</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" s="40">
-        <v>3545291000</v>
-      </c>
-      <c r="E90" s="40">
-        <v>1713557312</v>
-      </c>
-      <c r="F90" s="40">
-        <v>118176367</v>
-      </c>
-      <c r="G90" s="40">
-        <v>0</v>
-      </c>
-      <c r="H90" s="40">
-        <v>1831733679</v>
-      </c>
-      <c r="I90" s="40">
-        <v>1713557321</v>
-      </c>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-    </row>
-    <row r="91" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="32">
-        <v>135111</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="41">
-        <v>19591050629</v>
-      </c>
-      <c r="E91" s="41">
-        <v>471324778</v>
-      </c>
-      <c r="F91" s="41">
-        <v>290016285</v>
-      </c>
-      <c r="G91" s="41">
-        <v>0</v>
-      </c>
-      <c r="H91" s="41">
-        <v>761341063</v>
-      </c>
-      <c r="I91" s="41">
-        <v>18829709566</v>
-      </c>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-    </row>
-    <row r="92" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="33">
-        <v>1</v>
-      </c>
-      <c r="B92" s="33">
-        <v>60702</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" s="40">
-        <v>19995000</v>
-      </c>
-      <c r="E92" s="40">
-        <v>4998750</v>
-      </c>
-      <c r="F92" s="40">
-        <v>9997500</v>
-      </c>
-      <c r="G92" s="40">
-        <v>0</v>
-      </c>
-      <c r="H92" s="40">
-        <v>14996250</v>
-      </c>
-      <c r="I92" s="40">
-        <v>4998750</v>
-      </c>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-    </row>
-    <row r="93" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="33">
-        <v>2</v>
-      </c>
-      <c r="B93" s="33">
-        <v>60703</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D93" s="40">
-        <v>19571055629</v>
-      </c>
-      <c r="E93" s="40">
-        <v>466326028</v>
-      </c>
-      <c r="F93" s="40">
-        <v>280018785</v>
-      </c>
-      <c r="G93" s="40">
-        <v>0</v>
-      </c>
-      <c r="H93" s="40">
-        <v>746344813</v>
-      </c>
-      <c r="I93" s="40">
-        <v>18824710816</v>
-      </c>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-    </row>
-    <row r="94" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="33">
-        <v>3</v>
-      </c>
-      <c r="B94" s="33">
-        <v>60704</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="40">
-        <v>0</v>
-      </c>
-      <c r="E94" s="40">
-        <v>0</v>
-      </c>
-      <c r="F94" s="40">
-        <v>0</v>
-      </c>
-      <c r="G94" s="40">
-        <v>0</v>
-      </c>
-      <c r="H94" s="40">
-        <v>0</v>
-      </c>
-      <c r="I94" s="40">
-        <v>0</v>
-      </c>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-    </row>
-    <row r="95" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B95" s="32">
-        <v>135121</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="41">
-        <v>1907445516</v>
-      </c>
-      <c r="E95" s="41">
-        <v>524528805</v>
-      </c>
-      <c r="F95" s="41">
-        <v>13750000</v>
-      </c>
-      <c r="G95" s="41">
-        <v>-5000000</v>
-      </c>
-      <c r="H95" s="41">
-        <v>533278805</v>
-      </c>
-      <c r="I95" s="41">
-        <v>1374166711</v>
-      </c>
-      <c r="J95" s="30"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="30"/>
-    </row>
-    <row r="96" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="33">
-        <v>1</v>
-      </c>
-      <c r="B96" s="33">
-        <v>60201</v>
-      </c>
-      <c r="C96" s="33" t="s">
+      <c r="B148" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C148" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D96" s="40">
-        <v>1907445516</v>
-      </c>
-      <c r="E96" s="40">
-        <v>524528805</v>
-      </c>
-      <c r="F96" s="40">
-        <v>13750000</v>
-      </c>
-      <c r="G96" s="40">
-        <v>-5000000</v>
-      </c>
-      <c r="H96" s="40">
-        <v>533278805</v>
-      </c>
-      <c r="I96" s="40">
-        <v>1374166711</v>
-      </c>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-    </row>
-    <row r="97" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B97" s="32">
-        <v>166112</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D97" s="41">
-        <v>124356075817</v>
-      </c>
-      <c r="E97" s="41">
-        <v>115265753265</v>
-      </c>
-      <c r="F97" s="41">
-        <v>1171439846</v>
-      </c>
-      <c r="G97" s="41">
-        <v>-4773477001</v>
-      </c>
-      <c r="H97" s="41">
-        <v>111663716110</v>
-      </c>
-      <c r="I97" s="41">
-        <v>12692359707</v>
-      </c>
-      <c r="J97" s="30"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="30"/>
-    </row>
-    <row r="98" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="33">
-        <v>1</v>
-      </c>
-      <c r="B98" s="33">
-        <v>30101</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="40">
-        <v>10096244</v>
-      </c>
-      <c r="E98" s="40">
-        <v>100000</v>
-      </c>
-      <c r="F98" s="40">
-        <v>0</v>
-      </c>
-      <c r="G98" s="40">
-        <v>9996244</v>
-      </c>
-      <c r="H98" s="40">
-        <v>10096244</v>
-      </c>
-      <c r="I98" s="40">
-        <v>0</v>
-      </c>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-    </row>
-    <row r="99" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="33">
-        <v>2</v>
-      </c>
-      <c r="B99" s="33">
-        <v>30103</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="40">
-        <v>1786381531</v>
-      </c>
-      <c r="E99" s="40">
-        <v>2194499210</v>
-      </c>
-      <c r="F99" s="40">
-        <v>68700000</v>
-      </c>
-      <c r="G99" s="40">
-        <v>-408117679</v>
-      </c>
-      <c r="H99" s="40">
-        <v>1855081531</v>
-      </c>
-      <c r="I99" s="40">
-        <v>-68700000</v>
-      </c>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-    </row>
-    <row r="100" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="33">
-        <v>3</v>
-      </c>
-      <c r="B100" s="33">
-        <v>30201</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="40">
-        <v>10374859180</v>
-      </c>
-      <c r="E100" s="40">
-        <v>10805677819</v>
-      </c>
-      <c r="F100" s="40">
-        <v>3114286</v>
-      </c>
-      <c r="G100" s="40">
-        <v>-439290069</v>
-      </c>
-      <c r="H100" s="40">
-        <v>10369502036</v>
-      </c>
-      <c r="I100" s="40">
-        <v>5357144</v>
-      </c>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-    </row>
-    <row r="101" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="33">
-        <v>4</v>
-      </c>
-      <c r="B101" s="33">
-        <v>30202</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="40">
-        <v>15271700</v>
-      </c>
-      <c r="E101" s="40">
-        <v>4151700</v>
-      </c>
-      <c r="F101" s="40">
-        <v>0</v>
-      </c>
-      <c r="G101" s="40">
-        <v>11120000</v>
-      </c>
-      <c r="H101" s="40">
-        <v>15271700</v>
-      </c>
-      <c r="I101" s="40">
-        <v>0</v>
-      </c>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-    </row>
-    <row r="102" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="33">
-        <v>5</v>
-      </c>
-      <c r="B102" s="33">
-        <v>30203</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="40">
-        <v>623405000</v>
-      </c>
-      <c r="E102" s="40">
-        <v>623405000</v>
-      </c>
-      <c r="F102" s="40">
-        <v>0</v>
-      </c>
-      <c r="G102" s="40">
-        <v>0</v>
-      </c>
-      <c r="H102" s="40">
-        <v>623405000</v>
-      </c>
-      <c r="I102" s="40">
-        <v>0</v>
-      </c>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-    </row>
-    <row r="103" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="33">
-        <v>6</v>
-      </c>
-      <c r="B103" s="33">
-        <v>30301</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="40">
-        <v>4906000</v>
-      </c>
-      <c r="E103" s="40">
-        <v>5375000</v>
-      </c>
-      <c r="F103" s="40">
-        <v>315600</v>
-      </c>
-      <c r="G103" s="40">
-        <v>-879900</v>
-      </c>
-      <c r="H103" s="40">
-        <v>4810700</v>
-      </c>
-      <c r="I103" s="40">
-        <v>95300</v>
-      </c>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-    </row>
-    <row r="104" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="33">
-        <v>7</v>
-      </c>
-      <c r="B104" s="33">
-        <v>30302</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="40">
-        <v>44326423</v>
-      </c>
-      <c r="E104" s="40">
-        <v>26701423</v>
-      </c>
-      <c r="F104" s="40">
-        <v>0</v>
-      </c>
-      <c r="G104" s="40">
-        <v>17625000</v>
-      </c>
-      <c r="H104" s="40">
-        <v>44326423</v>
-      </c>
-      <c r="I104" s="40">
-        <v>0</v>
-      </c>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-    </row>
-    <row r="105" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="33">
-        <v>8</v>
-      </c>
-      <c r="B105" s="33">
-        <v>30303</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="40">
-        <v>146023040</v>
-      </c>
-      <c r="E105" s="40">
-        <v>66742940</v>
-      </c>
-      <c r="F105" s="40">
-        <v>1645000</v>
-      </c>
-      <c r="G105" s="40">
-        <v>76635100</v>
-      </c>
-      <c r="H105" s="40">
-        <v>145023040</v>
-      </c>
-      <c r="I105" s="40">
-        <v>1000000</v>
-      </c>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-    </row>
-    <row r="106" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="33">
-        <v>9</v>
-      </c>
-      <c r="B106" s="33">
-        <v>30401</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" s="40">
-        <v>87042661</v>
-      </c>
-      <c r="E106" s="40">
-        <v>115759901</v>
-      </c>
-      <c r="F106" s="40">
-        <v>0</v>
-      </c>
-      <c r="G106" s="40">
-        <v>-28717240</v>
-      </c>
-      <c r="H106" s="40">
-        <v>87042661</v>
-      </c>
-      <c r="I106" s="40">
-        <v>0</v>
-      </c>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-    </row>
-    <row r="107" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="33">
-        <v>10</v>
-      </c>
-      <c r="B107" s="33">
-        <v>30501</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="40">
-        <v>14457165951</v>
-      </c>
-      <c r="E107" s="40">
-        <v>16035824982</v>
-      </c>
-      <c r="F107" s="40">
-        <v>45920115</v>
-      </c>
-      <c r="G107" s="40">
-        <v>-1668789813</v>
-      </c>
-      <c r="H107" s="40">
-        <v>14412955284</v>
-      </c>
-      <c r="I107" s="40">
-        <v>44210667</v>
-      </c>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-    </row>
-    <row r="108" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="33">
-        <v>11</v>
-      </c>
-      <c r="B108" s="33">
-        <v>30502</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="40">
-        <v>26018908353</v>
-      </c>
-      <c r="E108" s="40">
-        <v>27835387669</v>
-      </c>
-      <c r="F108" s="40">
-        <v>53078666</v>
-      </c>
-      <c r="G108" s="40">
-        <v>-1928130342</v>
-      </c>
-      <c r="H108" s="40">
-        <v>25960335993</v>
-      </c>
-      <c r="I108" s="40">
-        <v>58572360</v>
-      </c>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-    </row>
-    <row r="109" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="33">
-        <v>12</v>
-      </c>
-      <c r="B109" s="33">
-        <v>30601</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="40">
-        <v>1380409329</v>
-      </c>
-      <c r="E109" s="40">
-        <v>1354751970</v>
-      </c>
-      <c r="F109" s="40">
-        <v>14208033</v>
-      </c>
-      <c r="G109" s="40">
-        <v>-11592192</v>
-      </c>
-      <c r="H109" s="40">
-        <v>1357367811</v>
-      </c>
-      <c r="I109" s="40">
-        <v>23041518</v>
-      </c>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-    </row>
-    <row r="110" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="33">
-        <v>13</v>
-      </c>
-      <c r="B110" s="33">
-        <v>30602</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D110" s="40">
-        <v>1906317604</v>
-      </c>
-      <c r="E110" s="40">
-        <v>1989503627</v>
-      </c>
-      <c r="F110" s="40">
-        <v>5650240</v>
-      </c>
-      <c r="G110" s="40">
-        <v>-95461363</v>
-      </c>
-      <c r="H110" s="40">
-        <v>1899692504</v>
-      </c>
-      <c r="I110" s="40">
-        <v>6625100</v>
-      </c>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-    </row>
-    <row r="111" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="33">
-        <v>14</v>
-      </c>
-      <c r="B111" s="33">
-        <v>30603</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D111" s="40">
-        <v>404580903</v>
-      </c>
-      <c r="E111" s="40">
-        <v>358153231</v>
-      </c>
-      <c r="F111" s="40">
-        <v>8762670</v>
-      </c>
-      <c r="G111" s="40">
-        <v>26742780</v>
-      </c>
-      <c r="H111" s="40">
-        <v>393658681</v>
-      </c>
-      <c r="I111" s="40">
-        <v>10922222</v>
-      </c>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
-    </row>
-    <row r="112" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="33">
-        <v>15</v>
-      </c>
-      <c r="B112" s="33">
-        <v>30701</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="40">
-        <v>224153750</v>
-      </c>
-      <c r="E112" s="40">
-        <v>135083750</v>
-      </c>
-      <c r="F112" s="40">
-        <v>0</v>
-      </c>
-      <c r="G112" s="40">
-        <v>89070000</v>
-      </c>
-      <c r="H112" s="40">
-        <v>224153750</v>
-      </c>
-      <c r="I112" s="40">
-        <v>0</v>
-      </c>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-    </row>
-    <row r="113" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="33">
-        <v>16</v>
-      </c>
-      <c r="B113" s="33">
-        <v>30702</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D113" s="40">
-        <v>1000</v>
-      </c>
-      <c r="E113" s="40">
-        <v>1000</v>
-      </c>
-      <c r="F113" s="40">
-        <v>0</v>
-      </c>
-      <c r="G113" s="40">
-        <v>0</v>
-      </c>
-      <c r="H113" s="40">
-        <v>1000</v>
-      </c>
-      <c r="I113" s="40">
-        <v>0</v>
-      </c>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
-    </row>
-    <row r="114" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="33">
-        <v>17</v>
-      </c>
-      <c r="B114" s="33">
-        <v>30801</v>
-      </c>
-      <c r="C114" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D114" s="40">
-        <v>433162010</v>
-      </c>
-      <c r="E114" s="40">
-        <v>329830261</v>
-      </c>
-      <c r="F114" s="40">
-        <v>1579878</v>
-      </c>
-      <c r="G114" s="40">
-        <v>101505746</v>
-      </c>
-      <c r="H114" s="40">
-        <v>432915885</v>
-      </c>
-      <c r="I114" s="40">
-        <v>246125</v>
-      </c>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-    </row>
-    <row r="115" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="33">
-        <v>18</v>
-      </c>
-      <c r="B115" s="33">
-        <v>30802</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="40">
-        <v>2000000</v>
-      </c>
-      <c r="E115" s="40">
-        <v>1399995</v>
-      </c>
-      <c r="F115" s="40">
-        <v>133335</v>
-      </c>
-      <c r="G115" s="40">
-        <v>0</v>
-      </c>
-      <c r="H115" s="40">
-        <v>1533330</v>
-      </c>
-      <c r="I115" s="40">
-        <v>466670</v>
-      </c>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
-    </row>
-    <row r="116" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="33">
-        <v>19</v>
-      </c>
-      <c r="B116" s="33">
-        <v>30803</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D116" s="40">
-        <v>67478652</v>
-      </c>
-      <c r="E116" s="40">
-        <v>43360373</v>
-      </c>
-      <c r="F116" s="40">
-        <v>4058253</v>
-      </c>
-      <c r="G116" s="40">
-        <v>985332</v>
-      </c>
-      <c r="H116" s="40">
-        <v>48403958</v>
-      </c>
-      <c r="I116" s="40">
-        <v>19074694</v>
-      </c>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-    </row>
-    <row r="117" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="33">
-        <v>20</v>
-      </c>
-      <c r="B117" s="33">
-        <v>30804</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="40">
-        <v>350000</v>
-      </c>
-      <c r="E117" s="40">
-        <v>350000</v>
-      </c>
-      <c r="F117" s="40">
-        <v>0</v>
-      </c>
-      <c r="G117" s="40">
-        <v>0</v>
-      </c>
-      <c r="H117" s="40">
-        <v>350000</v>
-      </c>
-      <c r="I117" s="40">
-        <v>0</v>
-      </c>
-      <c r="J117" s="29"/>
-      <c r="K117" s="29"/>
-      <c r="L117" s="29"/>
-    </row>
-    <row r="118" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="33">
-        <v>21</v>
-      </c>
-      <c r="B118" s="33">
-        <v>30806</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" s="40">
-        <v>0</v>
-      </c>
-      <c r="E118" s="40">
-        <v>0</v>
-      </c>
-      <c r="F118" s="40">
-        <v>0</v>
-      </c>
-      <c r="G118" s="40">
-        <v>0</v>
-      </c>
-      <c r="H118" s="40">
-        <v>0</v>
-      </c>
-      <c r="I118" s="40">
-        <v>0</v>
-      </c>
-      <c r="J118" s="29"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="29"/>
-    </row>
-    <row r="119" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="33">
-        <v>22</v>
-      </c>
-      <c r="B119" s="33">
-        <v>30807</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" s="40">
-        <v>8485000</v>
-      </c>
-      <c r="E119" s="40">
-        <v>6787999</v>
-      </c>
-      <c r="F119" s="40">
-        <v>565667</v>
-      </c>
-      <c r="G119" s="40">
-        <v>0</v>
-      </c>
-      <c r="H119" s="40">
-        <v>7353666</v>
-      </c>
-      <c r="I119" s="40">
-        <v>1131334</v>
-      </c>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="29"/>
-    </row>
-    <row r="120" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="33">
-        <v>23</v>
-      </c>
-      <c r="B120" s="33">
-        <v>30808</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D120" s="40">
-        <v>0</v>
-      </c>
-      <c r="E120" s="40">
-        <v>0</v>
-      </c>
-      <c r="F120" s="40">
-        <v>0</v>
-      </c>
-      <c r="G120" s="40">
-        <v>0</v>
-      </c>
-      <c r="H120" s="40">
-        <v>0</v>
-      </c>
-      <c r="I120" s="40">
-        <v>0</v>
-      </c>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="29"/>
-    </row>
-    <row r="121" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="33">
-        <v>24</v>
-      </c>
-      <c r="B121" s="33">
-        <v>30902</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121" s="40">
-        <v>4730001</v>
-      </c>
-      <c r="E121" s="40">
-        <v>2500001</v>
-      </c>
-      <c r="F121" s="40">
-        <v>733334</v>
-      </c>
-      <c r="G121" s="40">
-        <v>763333</v>
-      </c>
-      <c r="H121" s="40">
-        <v>3996668</v>
-      </c>
-      <c r="I121" s="40">
-        <v>733333</v>
-      </c>
-      <c r="J121" s="29"/>
-      <c r="K121" s="29"/>
-      <c r="L121" s="29"/>
-    </row>
-    <row r="122" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="33">
-        <v>25</v>
-      </c>
-      <c r="B122" s="33">
-        <v>30904</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D122" s="40">
-        <v>32306700</v>
-      </c>
-      <c r="E122" s="40">
-        <v>16331700</v>
-      </c>
-      <c r="F122" s="40">
-        <v>1243750</v>
-      </c>
-      <c r="G122" s="40">
-        <v>14731250</v>
-      </c>
-      <c r="H122" s="40">
-        <v>32306700</v>
-      </c>
-      <c r="I122" s="40">
-        <v>0</v>
-      </c>
-      <c r="J122" s="29"/>
-      <c r="K122" s="29"/>
-      <c r="L122" s="29"/>
-    </row>
-    <row r="123" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="33">
-        <v>26</v>
-      </c>
-      <c r="B123" s="33">
-        <v>31001</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D123" s="40">
-        <v>38121736050</v>
-      </c>
-      <c r="E123" s="40">
-        <v>38331744894</v>
-      </c>
-      <c r="F123" s="40">
-        <v>103523275</v>
-      </c>
-      <c r="G123" s="40">
-        <v>-370923907</v>
-      </c>
-      <c r="H123" s="40">
-        <v>38064344262</v>
-      </c>
-      <c r="I123" s="40">
-        <v>57391788</v>
-      </c>
-      <c r="J123" s="29"/>
-      <c r="K123" s="29"/>
-      <c r="L123" s="29"/>
-    </row>
-    <row r="124" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="33">
-        <v>27</v>
-      </c>
-      <c r="B124" s="33">
-        <v>31002</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D124" s="40">
-        <v>6434357403</v>
-      </c>
-      <c r="E124" s="40">
-        <v>6450565722</v>
-      </c>
-      <c r="F124" s="40">
-        <v>48809123</v>
-      </c>
-      <c r="G124" s="40">
-        <v>-120451180</v>
-      </c>
-      <c r="H124" s="40">
-        <v>6378923665</v>
-      </c>
-      <c r="I124" s="40">
-        <v>55433738</v>
-      </c>
-      <c r="J124" s="29"/>
-      <c r="K124" s="29"/>
-      <c r="L124" s="29"/>
-    </row>
-    <row r="125" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="33">
-        <v>28</v>
-      </c>
-      <c r="B125" s="33">
-        <v>31101</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="40">
-        <v>0</v>
-      </c>
-      <c r="E125" s="40">
-        <v>0</v>
-      </c>
-      <c r="F125" s="40">
-        <v>0</v>
-      </c>
-      <c r="G125" s="40">
-        <v>0</v>
-      </c>
-      <c r="H125" s="40">
-        <v>0</v>
-      </c>
-      <c r="I125" s="40">
-        <v>0</v>
-      </c>
-      <c r="J125" s="29"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="29"/>
-    </row>
-    <row r="126" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="33">
-        <v>29</v>
-      </c>
-      <c r="B126" s="33">
-        <v>31102</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="40">
-        <v>44715000</v>
-      </c>
-      <c r="E126" s="40">
-        <v>44715000</v>
-      </c>
-      <c r="F126" s="40">
-        <v>0</v>
-      </c>
-      <c r="G126" s="40">
-        <v>0</v>
-      </c>
-      <c r="H126" s="40">
-        <v>44715000</v>
-      </c>
-      <c r="I126" s="40">
-        <v>0</v>
-      </c>
-      <c r="J126" s="29"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="29"/>
-    </row>
-    <row r="127" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="33">
-        <v>30</v>
-      </c>
-      <c r="B127" s="33">
-        <v>31301</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D127" s="40">
-        <v>3500000</v>
-      </c>
-      <c r="E127" s="40">
-        <v>3500000</v>
-      </c>
-      <c r="F127" s="40">
-        <v>0</v>
-      </c>
-      <c r="G127" s="40">
-        <v>0</v>
-      </c>
-      <c r="H127" s="40">
-        <v>3500000</v>
-      </c>
-      <c r="I127" s="40">
-        <v>0</v>
-      </c>
-      <c r="J127" s="29"/>
-      <c r="K127" s="29"/>
-      <c r="L127" s="29"/>
-    </row>
-    <row r="128" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="33">
-        <v>31</v>
-      </c>
-      <c r="B128" s="33">
-        <v>31303</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D128" s="40">
-        <v>0</v>
-      </c>
-      <c r="E128" s="40">
-        <v>0</v>
-      </c>
-      <c r="F128" s="40">
-        <v>0</v>
-      </c>
-      <c r="G128" s="40">
-        <v>0</v>
-      </c>
-      <c r="H128" s="40">
-        <v>0</v>
-      </c>
-      <c r="I128" s="40">
-        <v>0</v>
-      </c>
-      <c r="J128" s="29"/>
-      <c r="K128" s="29"/>
-      <c r="L128" s="29"/>
-    </row>
-    <row r="129" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="33">
-        <v>32</v>
-      </c>
-      <c r="B129" s="33">
-        <v>31401</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D129" s="40">
-        <v>0</v>
-      </c>
-      <c r="E129" s="40">
-        <v>0</v>
-      </c>
-      <c r="F129" s="40">
-        <v>0</v>
-      </c>
-      <c r="G129" s="40">
-        <v>0</v>
-      </c>
-      <c r="H129" s="40">
-        <v>0</v>
-      </c>
-      <c r="I129" s="40">
-        <v>0</v>
-      </c>
-      <c r="J129" s="29"/>
-      <c r="K129" s="29"/>
-      <c r="L129" s="29"/>
-    </row>
-    <row r="130" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="33">
-        <v>33</v>
-      </c>
-      <c r="B130" s="33">
-        <v>31502</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D130" s="40">
-        <v>200000</v>
-      </c>
-      <c r="E130" s="40">
-        <v>200000</v>
-      </c>
-      <c r="F130" s="40">
-        <v>0</v>
-      </c>
-      <c r="G130" s="40">
-        <v>0</v>
-      </c>
-      <c r="H130" s="40">
-        <v>200000</v>
-      </c>
-      <c r="I130" s="40">
-        <v>0</v>
-      </c>
-      <c r="J130" s="29"/>
-      <c r="K130" s="29"/>
-      <c r="L130" s="29"/>
-    </row>
-    <row r="131" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="33">
-        <v>34</v>
-      </c>
-      <c r="B131" s="33">
-        <v>31504</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="40">
-        <v>84518000</v>
-      </c>
-      <c r="E131" s="40">
-        <v>46301000</v>
-      </c>
-      <c r="F131" s="40">
-        <v>8451800</v>
-      </c>
-      <c r="G131" s="40">
-        <v>2768700</v>
-      </c>
-      <c r="H131" s="40">
-        <v>57521500</v>
-      </c>
-      <c r="I131" s="40">
-        <v>26996500</v>
-      </c>
-      <c r="J131" s="29"/>
-      <c r="K131" s="29"/>
-      <c r="L131" s="29"/>
-    </row>
-    <row r="132" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="33">
-        <v>35</v>
-      </c>
-      <c r="B132" s="33">
-        <v>31601</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D132" s="40">
-        <v>0</v>
-      </c>
-      <c r="E132" s="40">
-        <v>0</v>
-      </c>
-      <c r="F132" s="40">
-        <v>0</v>
-      </c>
-      <c r="G132" s="40">
-        <v>0</v>
-      </c>
-      <c r="H132" s="40">
-        <v>0</v>
-      </c>
-      <c r="I132" s="40">
-        <v>0</v>
-      </c>
-      <c r="J132" s="29"/>
-      <c r="K132" s="29"/>
-      <c r="L132" s="29"/>
-    </row>
-    <row r="133" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="33">
-        <v>36</v>
-      </c>
-      <c r="B133" s="33">
-        <v>31701</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D133" s="40">
-        <v>17313400</v>
-      </c>
-      <c r="E133" s="40">
-        <v>20772400</v>
-      </c>
-      <c r="F133" s="40">
-        <v>0</v>
-      </c>
-      <c r="G133" s="40">
-        <v>-3459000</v>
-      </c>
-      <c r="H133" s="40">
-        <v>17313400</v>
-      </c>
-      <c r="I133" s="40">
-        <v>0</v>
-      </c>
-      <c r="J133" s="29"/>
-      <c r="K133" s="29"/>
-      <c r="L133" s="29"/>
-    </row>
-    <row r="134" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="33">
-        <v>37</v>
-      </c>
-      <c r="B134" s="33">
-        <v>31801</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D134" s="40">
-        <v>0</v>
-      </c>
-      <c r="E134" s="40">
-        <v>500000</v>
-      </c>
-      <c r="F134" s="40">
-        <v>0</v>
-      </c>
-      <c r="G134" s="40">
-        <v>-500000</v>
-      </c>
-      <c r="H134" s="40">
-        <v>0</v>
-      </c>
-      <c r="I134" s="40">
-        <v>0</v>
-      </c>
-      <c r="J134" s="29"/>
-      <c r="K134" s="29"/>
-      <c r="L134" s="29"/>
-    </row>
-    <row r="135" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="33">
-        <v>38</v>
-      </c>
-      <c r="B135" s="33">
-        <v>31901</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D135" s="40">
-        <v>25939888</v>
-      </c>
-      <c r="E135" s="40">
-        <v>27494335</v>
-      </c>
-      <c r="F135" s="40">
-        <v>0</v>
-      </c>
-      <c r="G135" s="40">
-        <v>-1554447</v>
-      </c>
-      <c r="H135" s="40">
-        <v>25939888</v>
-      </c>
-      <c r="I135" s="40">
-        <v>0</v>
-      </c>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
-    </row>
-    <row r="136" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="33">
-        <v>39</v>
-      </c>
-      <c r="B136" s="33">
-        <v>40101</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D136" s="40">
-        <v>11691792371</v>
-      </c>
-      <c r="E136" s="40">
-        <v>4404185286</v>
-      </c>
-      <c r="F136" s="40">
-        <v>323834471</v>
-      </c>
-      <c r="G136" s="40">
-        <v>178807567</v>
-      </c>
-      <c r="H136" s="40">
-        <v>4906827324</v>
-      </c>
-      <c r="I136" s="40">
-        <v>6784965047</v>
-      </c>
-      <c r="J136" s="29"/>
-      <c r="K136" s="29"/>
-      <c r="L136" s="29"/>
-    </row>
-    <row r="137" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="33">
-        <v>40</v>
-      </c>
-      <c r="B137" s="33">
-        <v>40102</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D137" s="40">
-        <v>8157256967</v>
-      </c>
-      <c r="E137" s="40">
-        <v>2683212371</v>
-      </c>
-      <c r="F137" s="40">
-        <v>443632379</v>
-      </c>
-      <c r="G137" s="40">
-        <v>-241789750</v>
-      </c>
-      <c r="H137" s="40">
-        <v>2885055000</v>
-      </c>
-      <c r="I137" s="40">
-        <v>5272201967</v>
-      </c>
-      <c r="J137" s="29"/>
-      <c r="K137" s="29"/>
-      <c r="L137" s="29"/>
-    </row>
-    <row r="138" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="33">
-        <v>41</v>
-      </c>
-      <c r="B138" s="33">
-        <v>40401</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D138" s="40">
-        <v>190116000</v>
-      </c>
-      <c r="E138" s="40">
-        <v>23088276</v>
-      </c>
-      <c r="F138" s="40">
-        <v>4999818</v>
-      </c>
-      <c r="G138" s="40">
-        <v>2529090</v>
-      </c>
-      <c r="H138" s="40">
-        <v>30617184</v>
-      </c>
-      <c r="I138" s="40">
-        <v>159498816</v>
-      </c>
-      <c r="J138" s="29"/>
-      <c r="K138" s="29"/>
-      <c r="L138" s="29"/>
-    </row>
-    <row r="139" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="33">
-        <v>42</v>
-      </c>
-      <c r="B139" s="33">
-        <v>50101</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D139" s="40">
-        <v>905596500</v>
-      </c>
-      <c r="E139" s="40">
-        <v>882851386</v>
-      </c>
-      <c r="F139" s="40">
-        <v>20746125</v>
-      </c>
-      <c r="G139" s="40">
-        <v>-3806011</v>
-      </c>
-      <c r="H139" s="40">
-        <v>899791500</v>
-      </c>
-      <c r="I139" s="40">
-        <v>5805000</v>
-      </c>
-      <c r="J139" s="29"/>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
-    </row>
-    <row r="140" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="33">
-        <v>43</v>
-      </c>
-      <c r="B140" s="33">
-        <v>50205</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D140" s="40">
-        <v>0</v>
-      </c>
-      <c r="E140" s="40">
-        <v>0</v>
-      </c>
-      <c r="F140" s="40">
-        <v>0</v>
-      </c>
-      <c r="G140" s="40">
-        <v>0</v>
-      </c>
-      <c r="H140" s="40">
-        <v>0</v>
-      </c>
-      <c r="I140" s="40">
-        <v>0</v>
-      </c>
-      <c r="J140" s="29"/>
-      <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
-    </row>
-    <row r="141" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="33">
-        <v>44</v>
-      </c>
-      <c r="B141" s="33">
-        <v>50206</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D141" s="40">
-        <v>22145001</v>
-      </c>
-      <c r="E141" s="40">
-        <v>8329431</v>
-      </c>
-      <c r="F141" s="40">
-        <v>567634</v>
-      </c>
-      <c r="G141" s="40">
-        <v>0</v>
-      </c>
-      <c r="H141" s="40">
-        <v>8897065</v>
-      </c>
-      <c r="I141" s="40">
-        <v>13247936</v>
-      </c>
-      <c r="J141" s="29"/>
-      <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
-    </row>
-    <row r="142" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="33">
-        <v>45</v>
-      </c>
-      <c r="B142" s="33">
-        <v>50301</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D142" s="40">
-        <v>0</v>
-      </c>
-      <c r="E142" s="40">
-        <v>0</v>
-      </c>
-      <c r="F142" s="40">
-        <v>0</v>
-      </c>
-      <c r="G142" s="40">
-        <v>0</v>
-      </c>
-      <c r="H142" s="40">
-        <v>0</v>
-      </c>
-      <c r="I142" s="40">
-        <v>0</v>
-      </c>
-      <c r="J142" s="29"/>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
-    </row>
-    <row r="143" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="33">
-        <v>46</v>
-      </c>
-      <c r="B143" s="33">
-        <v>50305</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D143" s="40">
-        <v>5000000</v>
-      </c>
-      <c r="E143" s="40">
-        <v>1687500</v>
-      </c>
-      <c r="F143" s="40">
-        <v>125000</v>
-      </c>
-      <c r="G143" s="40">
-        <v>0</v>
-      </c>
-      <c r="H143" s="40">
-        <v>1812500</v>
-      </c>
-      <c r="I143" s="40">
-        <v>3187500</v>
-      </c>
-      <c r="J143" s="29"/>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
-    </row>
-    <row r="144" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="33">
-        <v>47</v>
-      </c>
-      <c r="B144" s="33">
-        <v>50306</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D144" s="40">
-        <v>49940000</v>
-      </c>
-      <c r="E144" s="40">
-        <v>14982000</v>
-      </c>
-      <c r="F144" s="40">
-        <v>1248500</v>
-      </c>
-      <c r="G144" s="40">
-        <v>0</v>
-      </c>
-      <c r="H144" s="40">
-        <v>16230500</v>
-      </c>
-      <c r="I144" s="40">
-        <v>33709500</v>
-      </c>
-      <c r="J144" s="29"/>
-      <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
-    </row>
-    <row r="145" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="33">
-        <v>48</v>
-      </c>
-      <c r="B145" s="33">
-        <v>50310</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D145" s="40">
-        <v>275578600</v>
-      </c>
-      <c r="E145" s="40">
-        <v>314448600</v>
-      </c>
-      <c r="F145" s="40">
-        <v>0</v>
-      </c>
-      <c r="G145" s="40">
-        <v>-38870000</v>
-      </c>
-      <c r="H145" s="40">
-        <v>275578600</v>
-      </c>
-      <c r="I145" s="40">
-        <v>0</v>
-      </c>
-      <c r="J145" s="29"/>
-      <c r="K145" s="29"/>
-      <c r="L145" s="29"/>
-    </row>
-    <row r="146" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="33">
-        <v>49</v>
-      </c>
-      <c r="B146" s="33">
-        <v>50401</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D146" s="40">
-        <v>144010</v>
-      </c>
-      <c r="E146" s="40">
-        <v>144010</v>
-      </c>
-      <c r="F146" s="40">
-        <v>0</v>
-      </c>
-      <c r="G146" s="40">
-        <v>0</v>
-      </c>
-      <c r="H146" s="40">
-        <v>144010</v>
-      </c>
-      <c r="I146" s="40">
-        <v>0</v>
-      </c>
-      <c r="J146" s="29"/>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
-    </row>
-    <row r="147" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="33">
-        <v>50</v>
-      </c>
-      <c r="B147" s="33">
-        <v>50402</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D147" s="40">
-        <v>207425595</v>
-      </c>
-      <c r="E147" s="40">
-        <v>17656535</v>
-      </c>
-      <c r="F147" s="40">
-        <v>3395390</v>
-      </c>
-      <c r="G147" s="40">
-        <v>38425750</v>
-      </c>
-      <c r="H147" s="40">
-        <v>59477675</v>
-      </c>
-      <c r="I147" s="40">
-        <v>147947920</v>
-      </c>
-      <c r="J147" s="29"/>
-      <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
-    </row>
-    <row r="148" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="33">
-        <v>51</v>
-      </c>
-      <c r="B148" s="33">
-        <v>50403</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D148" s="40">
-        <v>47950000</v>
-      </c>
-      <c r="E148" s="40">
-        <v>12194968</v>
-      </c>
-      <c r="F148" s="40">
-        <v>2397504</v>
-      </c>
-      <c r="G148" s="40">
-        <v>12150000</v>
-      </c>
-      <c r="H148" s="40">
-        <v>26742472</v>
-      </c>
-      <c r="I148" s="40">
-        <v>21207528</v>
-      </c>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
-    </row>
-    <row r="149" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="33">
-        <v>52</v>
-      </c>
-      <c r="B149" s="33">
-        <v>60201</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D149" s="40">
-        <v>38490000</v>
-      </c>
-      <c r="E149" s="40">
-        <v>25500000</v>
-      </c>
-      <c r="F149" s="40">
-        <v>0</v>
-      </c>
-      <c r="G149" s="40">
-        <v>5000000</v>
-      </c>
-      <c r="H149" s="40">
-        <v>30500000</v>
-      </c>
-      <c r="I149" s="40">
-        <v>7990000</v>
-      </c>
-      <c r="J149" s="29"/>
-      <c r="K149" s="29"/>
-      <c r="L149" s="29"/>
-    </row>
-    <row r="150" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="33"/>
-      <c r="B150" s="35" t="s">
+      <c r="D148" s="47">
+        <v>23411805</v>
+      </c>
+      <c r="E148" s="47">
+        <v>32000000</v>
+      </c>
+      <c r="F148" s="47">
+        <v>0</v>
+      </c>
+      <c r="G148" s="47">
+        <v>-8588195</v>
+      </c>
+      <c r="H148" s="47">
+        <v>23411805</v>
+      </c>
+      <c r="I148" s="47">
+        <v>0</v>
+      </c>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
+    </row>
+    <row r="149" spans="1:13" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="35"/>
-      <c r="D150" s="42">
-        <v>12092780086576</v>
-      </c>
-      <c r="E150" s="42">
-        <v>3394152981265</v>
-      </c>
-      <c r="F150" s="42">
-        <v>577160029307</v>
-      </c>
-      <c r="G150" s="42">
-        <v>-29046288659</v>
-      </c>
-      <c r="H150" s="42">
-        <v>3942266721913</v>
-      </c>
-      <c r="I150" s="42">
-        <v>8150513364663</v>
-      </c>
-      <c r="J150" s="31"/>
-      <c r="K150" s="31"/>
-      <c r="L150" s="31"/>
-      <c r="M150" s="31"/>
-    </row>
-    <row r="151" spans="1:13" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B151" s="8"/>
-      <c r="C151" s="1"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="48">
+        <v>13823976486057</v>
+      </c>
+      <c r="E149" s="48">
+        <v>4144306912284</v>
+      </c>
+      <c r="F149" s="48">
+        <v>613387917973</v>
+      </c>
+      <c r="G149" s="48">
+        <v>46636518356</v>
+      </c>
+      <c r="H149" s="48">
+        <v>4804331348613</v>
+      </c>
+      <c r="I149" s="48">
+        <v>9019645137444</v>
+      </c>
+      <c r="J149" s="45"/>
+      <c r="K149" s="45"/>
+      <c r="L149" s="45"/>
+      <c r="M149" s="45"/>
+    </row>
+    <row r="150" spans="1:13" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B150" s="8"/>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B151" s="10"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B152" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B153" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B152" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="B150:C150"/>
+  <mergeCells count="12">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;RHalaman &amp;P</oddFooter>
   </headerFooter>
